--- a/data/hotels_by_city/Houston/Houston_shard_497.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_497.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56855-d244395-Reviews-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Motel-6-Houston-NASA.h996390.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,853 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r600283011-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>56855</t>
+  </si>
+  <si>
+    <t>244395</t>
+  </si>
+  <si>
+    <t>600283011</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>Good stay!!</t>
+  </si>
+  <si>
+    <t>Conveniently located near I 45. Close to Kemah boardwalk where we along with our kids enjoyed Friday fireworks. Plenty of restaurants around and a new shopping mall. In general we liked the facility. Staff was polite and professional.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r599442420-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>599442420</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>MICE!</t>
+  </si>
+  <si>
+    <t>BYOBait - for the MICE that is. When we arrived, it looked tidy and just as you'd expect of any other Motel 6. I *did* notice right by our front door - a suspect hole in the corner of the room, and what appeared to be rodent droppings. I dismissed my gut feeling and joined my family at the pool. We returned from our swim and settled in for the evening. Minutes after turning off the lights, we heard food packaging being messed with. I turned on my phone's flashlight and saw three mice run for the same hole I'd inspected earlier. We moved all of our food to the truck and zipped up our bags, but not before finding one last mouse who'd been hiding for cover in our son's overnight duffle. Surprise!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Houston NASA, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>BYOBait - for the MICE that is. When we arrived, it looked tidy and just as you'd expect of any other Motel 6. I *did* notice right by our front door - a suspect hole in the corner of the room, and what appeared to be rodent droppings. I dismissed my gut feeling and joined my family at the pool. We returned from our swim and settled in for the evening. Minutes after turning off the lights, we heard food packaging being messed with. I turned on my phone's flashlight and saw three mice run for the same hole I'd inspected earlier. We moved all of our food to the truck and zipped up our bags, but not before finding one last mouse who'd been hiding for cover in our son's overnight duffle. Surprise!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r599093677-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>599093677</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Fun in the sun</t>
+  </si>
+  <si>
+    <t>We had to wait 20 minutes before we got checked in. It was super busy. Staff was very nice and polite. We wanted to have a smoking room and they didn’t have any available. In general we enjoyed and would stay there again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r591176789-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>591176789</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>A great motel</t>
+  </si>
+  <si>
+    <t>Very comfortable and clean it was during the week. And the swimming pool was very clean as well. All high marks on my checklist. I will Definetly be doing business here again. Thank you for the great service.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r591173290-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>591173290</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Had a very good stay,rooms were very clean and it was quiet. It was very close to a lot of stores so it was a very convenient stay as well, Front desk we're very nice. Definitely will stay and recommend to friends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r589252004-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>589252004</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>All of the staff were very kind and helpful. That was very much appreciated, with my unexpected stay. They have multiple bed size options, as well as the option for a mini fridge and microwave in your room. I'd definitely recommend this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Houston NASA, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>All of the staff were very kind and helpful. That was very much appreciated, with my unexpected stay. They have multiple bed size options, as well as the option for a mini fridge and microwave in your room. I'd definitely recommend this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r583350680-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>583350680</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>This place is outstanding. Large, clean and comfortable rooms. Staff is super friendly and knowledgeable. There is a waffle house right next door and a IHOP about 2 miles away. Kids enjoyed pool all day long. Huge shopping mall nearby and tons of restaurants around. We will definitely come here again.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r568926918-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>568926918</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Clean room,friendly staff and management</t>
+  </si>
+  <si>
+    <t>This hotel is budget friendly and near almost everything- shopping malls,NASA,lots of reaaurants nearby and about 25min to galveston beach.My room was very clean,just the right size and i love the fact tjat it isn't carpeted,linens amd beddings smells fresh and clean.I dont think negative reviews are all true,some people make small things big issue,rooms are nice clean and decent and staff and management are all friendly and welcoming. i have seen how they treat customers,esp the manager on duty, i noticed how she greeted people on the hallway and took her time to make them feel they are welcome and they matter in this hotel.she is just a breathe of fresh air,soft spoken and super nice! I had minor issue in my room and needed a lil help and she came to see me personally and helped me and solved the problem.She is very friendly and handsdown nice.Some businesses would just take your money,but here i felt truly welcomed and treated nicely,I felt at home.Nothing extra especial in this hotel but for the affordable price,clean room and friendly people from front desk to management i will definitely come back again and will surely recommend this place to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This hotel is budget friendly and near almost everything- shopping malls,NASA,lots of reaaurants nearby and about 25min to galveston beach.My room was very clean,just the right size and i love the fact tjat it isn't carpeted,linens amd beddings smells fresh and clean.I dont think negative reviews are all true,some people make small things big issue,rooms are nice clean and decent and staff and management are all friendly and welcoming. i have seen how they treat customers,esp the manager on duty, i noticed how she greeted people on the hallway and took her time to make them feel they are welcome and they matter in this hotel.she is just a breathe of fresh air,soft spoken and super nice! I had minor issue in my room and needed a lil help and she came to see me personally and helped me and solved the problem.She is very friendly and handsdown nice.Some businesses would just take your money,but here i felt truly welcomed and treated nicely,I felt at home.Nothing extra especial in this hotel but for the affordable price,clean room and friendly people from front desk to management i will definitely come back again and will surely recommend this place to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r564446962-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>564446962</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Convenient-Cheap-Basic</t>
+  </si>
+  <si>
+    <t>This Motel 6 is convenient off I-45 as you drive either South or North through the Webster/NASA, TX area.  You can't miss the large A-Frame building that marks the office/registration building.  My room was clean but had only the basic necessities of a motel room.  The floor was all faux wood and there was NO rugs anywhere.  Besides the king sized bed I requested there was a small kitchen table and two chairs but no other seating was present.  The TV was mounted to the wall and was not adjustable for viewing on any angle.  The number of channels was good.  The bath towels were almost thread bare and were small compared to what your get at a higher priced facility.  The bathroom consisted of a sink separate from the toilet and bath/shower.  The sink was modern but there was NO hair dryer present.  The shower/Bath did not have an adjustable shower head.
+The bed was soft but comfortable.  There is a Waffle House right next door but if you want something different to eat you will have to drive a few miles.  I've tried different places to stay while in Webster.  While the price was right the amenities, PAID WiFi if you want it, and its location are not what I am looking for in a hotel/motel. I think it a great place for people on a tight budget or singles looking for one night before moving on.  The...This Motel 6 is convenient off I-45 as you drive either South or North through the Webster/NASA, TX area.  You can't miss the large A-Frame building that marks the office/registration building.  My room was clean but had only the basic necessities of a motel room.  The floor was all faux wood and there was NO rugs anywhere.  Besides the king sized bed I requested there was a small kitchen table and two chairs but no other seating was present.  The TV was mounted to the wall and was not adjustable for viewing on any angle.  The number of channels was good.  The bath towels were almost thread bare and were small compared to what your get at a higher priced facility.  The bathroom consisted of a sink separate from the toilet and bath/shower.  The sink was modern but there was NO hair dryer present.  The shower/Bath did not have an adjustable shower head.The bed was soft but comfortable.  There is a Waffle House right next door but if you want something different to eat you will have to drive a few miles.  I've tried different places to stay while in Webster.  While the price was right the amenities, PAID WiFi if you want it, and its location are not what I am looking for in a hotel/motel. I think it a great place for people on a tight budget or singles looking for one night before moving on.  The one PLUS was it was very quiet even thought it is an older design.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>This Motel 6 is convenient off I-45 as you drive either South or North through the Webster/NASA, TX area.  You can't miss the large A-Frame building that marks the office/registration building.  My room was clean but had only the basic necessities of a motel room.  The floor was all faux wood and there was NO rugs anywhere.  Besides the king sized bed I requested there was a small kitchen table and two chairs but no other seating was present.  The TV was mounted to the wall and was not adjustable for viewing on any angle.  The number of channels was good.  The bath towels were almost thread bare and were small compared to what your get at a higher priced facility.  The bathroom consisted of a sink separate from the toilet and bath/shower.  The sink was modern but there was NO hair dryer present.  The shower/Bath did not have an adjustable shower head.
+The bed was soft but comfortable.  There is a Waffle House right next door but if you want something different to eat you will have to drive a few miles.  I've tried different places to stay while in Webster.  While the price was right the amenities, PAID WiFi if you want it, and its location are not what I am looking for in a hotel/motel. I think it a great place for people on a tight budget or singles looking for one night before moving on.  The...This Motel 6 is convenient off I-45 as you drive either South or North through the Webster/NASA, TX area.  You can't miss the large A-Frame building that marks the office/registration building.  My room was clean but had only the basic necessities of a motel room.  The floor was all faux wood and there was NO rugs anywhere.  Besides the king sized bed I requested there was a small kitchen table and two chairs but no other seating was present.  The TV was mounted to the wall and was not adjustable for viewing on any angle.  The number of channels was good.  The bath towels were almost thread bare and were small compared to what your get at a higher priced facility.  The bathroom consisted of a sink separate from the toilet and bath/shower.  The sink was modern but there was NO hair dryer present.  The shower/Bath did not have an adjustable shower head.The bed was soft but comfortable.  There is a Waffle House right next door but if you want something different to eat you will have to drive a few miles.  I've tried different places to stay while in Webster.  While the price was right the amenities, PAID WiFi if you want it, and its location are not what I am looking for in a hotel/motel. I think it a great place for people on a tight budget or singles looking for one night before moving on.  The one PLUS was it was very quiet even thought it is an older design.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r483065793-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>483065793</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Ok for NASA</t>
+  </si>
+  <si>
+    <t>The location is very convenient for visiting the NASA Space Center. The rooms are large and there is a free pool. However, the wifi is not free and the morning coffee is... well, forget about it. The receptionist seemed rather annoyed by our presence. Some rooms were without warm water while we were there. No hairdryer in the room. Clean, basic, relatively cheap, but services could be improved quite a lot.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r480525120-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>480525120</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Nice quiet 4 day stay!</t>
+  </si>
+  <si>
+    <t>I did have a nice stay again!  This is the 11th year I have stayed at this hotel!  It is conveniently located between Clear Lake and Galveston!  My two favorite salt water fishing locations!  I did have a baby mouse in the toilet when I arrived but couldn't figure out how it got there!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r473199816-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>473199816</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Room not ready!</t>
+  </si>
+  <si>
+    <t>I had previously stayed at Motel 6 at different locations with no problems but I was disappointed in this stay. I had advanced reservations for an accessible room due to recent knee replacement and the inability to get in and out of tub or low commode. I called an hour before check in time to see if room was available due to long commute and pain in knee. I was told that the room was not ready but would be at check in time (3 pm). Upon arrival at 3 pm I was told by  Sheila (Manager) that the room was not ready as the people from the night before requested late check out at 1 pm. I left and returned 30 minutes later to hear that they had checked out at 2PM and that she didn't know when the room would be ready. I sat in the tiny lobby to wait as I needed to sit down. A woman came in who had been called to the lobby by Sheila and was told that the room she needed to be moved into was ready but the computer wouldn't let Sheila move her to the room. At that point I told her I needed a bed to lie down due to pain and would take whatever she had. She checked me into the exact room the other woman had just been told she couldn't move to! 
+I got my key,...I had previously stayed at Motel 6 at different locations with no problems but I was disappointed in this stay. I had advanced reservations for an accessible room due to recent knee replacement and the inability to get in and out of tub or low commode. I called an hour before check in time to see if room was available due to long commute and pain in knee. I was told that the room was not ready but would be at check in time (3 pm). Upon arrival at 3 pm I was told by  Sheila (Manager) that the room was not ready as the people from the night before requested late check out at 1 pm. I left and returned 30 minutes later to hear that they had checked out at 2PM and that she didn't know when the room would be ready. I sat in the tiny lobby to wait as I needed to sit down. A woman came in who had been called to the lobby by Sheila and was told that the room she needed to be moved into was ready but the computer wouldn't let Sheila move her to the room. At that point I told her I needed a bed to lie down due to pain and would take whatever she had. She checked me into the exact room the other woman had just been told she couldn't move to! I got my key, drove as close as I could to the regular room and took my luggage to the door, which would NOT open with the key!. I had to drag my luggage back to the car and drive back to the lobby. As I was in line waiting the woman who was supposed to to get the room I was given was also back. I mentioned I was having trouble getting into my room but that I couldn't get an accessible room as booked. She exclaimed that they LOVED the accessible room they were in and thought they were going to have to move out but at the last minute had been told they could stay in the accessible room!  I feel very strongly that this woman and her husband were allowed to stay in the room that was reserved for me so the staff wouldn't have to change the linens..... I did not confront Sheila and just got another key, which did work. However, when I arrived back at the room with my new key a workman was working on the door!  I told him it was just the key and I had a new one but that the safety lock was on the dresser top in the room so he fixed that. My room was right by the pool and it was noisy until well after dark, including a small dog that ran loose and had a shrill bark which was heard frequently. I love dogs and have one of my own but this one was very disruptive. The AC unit in the window had the vent adjusters broken off so there was no control of airflow. All in all this experience has turned me against Motel 6 and I will probably never use them again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Houston NASA, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>I had previously stayed at Motel 6 at different locations with no problems but I was disappointed in this stay. I had advanced reservations for an accessible room due to recent knee replacement and the inability to get in and out of tub or low commode. I called an hour before check in time to see if room was available due to long commute and pain in knee. I was told that the room was not ready but would be at check in time (3 pm). Upon arrival at 3 pm I was told by  Sheila (Manager) that the room was not ready as the people from the night before requested late check out at 1 pm. I left and returned 30 minutes later to hear that they had checked out at 2PM and that she didn't know when the room would be ready. I sat in the tiny lobby to wait as I needed to sit down. A woman came in who had been called to the lobby by Sheila and was told that the room she needed to be moved into was ready but the computer wouldn't let Sheila move her to the room. At that point I told her I needed a bed to lie down due to pain and would take whatever she had. She checked me into the exact room the other woman had just been told she couldn't move to! 
+I got my key,...I had previously stayed at Motel 6 at different locations with no problems but I was disappointed in this stay. I had advanced reservations for an accessible room due to recent knee replacement and the inability to get in and out of tub or low commode. I called an hour before check in time to see if room was available due to long commute and pain in knee. I was told that the room was not ready but would be at check in time (3 pm). Upon arrival at 3 pm I was told by  Sheila (Manager) that the room was not ready as the people from the night before requested late check out at 1 pm. I left and returned 30 minutes later to hear that they had checked out at 2PM and that she didn't know when the room would be ready. I sat in the tiny lobby to wait as I needed to sit down. A woman came in who had been called to the lobby by Sheila and was told that the room she needed to be moved into was ready but the computer wouldn't let Sheila move her to the room. At that point I told her I needed a bed to lie down due to pain and would take whatever she had. She checked me into the exact room the other woman had just been told she couldn't move to! I got my key, drove as close as I could to the regular room and took my luggage to the door, which would NOT open with the key!. I had to drag my luggage back to the car and drive back to the lobby. As I was in line waiting the woman who was supposed to to get the room I was given was also back. I mentioned I was having trouble getting into my room but that I couldn't get an accessible room as booked. She exclaimed that they LOVED the accessible room they were in and thought they were going to have to move out but at the last minute had been told they could stay in the accessible room!  I feel very strongly that this woman and her husband were allowed to stay in the room that was reserved for me so the staff wouldn't have to change the linens..... I did not confront Sheila and just got another key, which did work. However, when I arrived back at the room with my new key a workman was working on the door!  I told him it was just the key and I had a new one but that the safety lock was on the dresser top in the room so he fixed that. My room was right by the pool and it was noisy until well after dark, including a small dog that ran loose and had a shrill bark which was heard frequently. I love dogs and have one of my own but this one was very disruptive. The AC unit in the window had the vent adjusters broken off so there was no control of airflow. All in all this experience has turned me against Motel 6 and I will probably never use them again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r442556854-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>442556854</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die hard motel 6 fan because of the speedy check in and check out time and they allow dogs without a deposit. Upgraded me to a king size bed last minute and the wifi was free at this location. Great room for 52 bucks. </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r439489523-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>439489523</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>This hotel looked great from the pics and I felt very comfortable booking given the reviews. Well, it wasn't.  The floors are laminate and looked like they haven't been cleaned in a very long time and they were bubbled in some spots. The bathtub had a dirty ring around it, the toilet wouldn't flush, and the smell was awful! Finally the part that made me request a refund...I checked the mattress like I always do in any hotel and black mold was all over it! I got an immediate refund. I will say this though, the staff were very polite and professional. They took care of all my needs. I give the staff 5 stars but the hotel none if I could.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>This hotel looked great from the pics and I felt very comfortable booking given the reviews. Well, it wasn't.  The floors are laminate and looked like they haven't been cleaned in a very long time and they were bubbled in some spots. The bathtub had a dirty ring around it, the toilet wouldn't flush, and the smell was awful! Finally the part that made me request a refund...I checked the mattress like I always do in any hotel and black mold was all over it! I got an immediate refund. I will say this though, the staff were very polite and professional. They took care of all my needs. I give the staff 5 stars but the hotel none if I could.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r435410800-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>435410800</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Perfect Location to come home to after a night of Bull Red Fishing</t>
+  </si>
+  <si>
+    <t>My room was always perfect to come home too after a night of Surf Fishing.  This year the Bull Red Fishing was Epic!  I haven't caught 5 Redfish, much less 5 Bull Redfish in 40 years.  It was the most enjoyable fishing trip ever!  I asked to stay an extra day at this Motel 6 and they were able to accommodate me.  It was short notice too!  They have never let me down!  I will always stay at this motel 6!  Keep up the good work!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r414046668-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>414046668</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasn't happy! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I made the mistake and didn't pay attention when I made the reservation I guess but our room was a smoking room and the non smoking rooms reeked of smoke. So either way I couldn't stay another night especially with my kids. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r389773306-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>389773306</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Clean, Pleasant, Inexpensive</t>
+  </si>
+  <si>
+    <t>Clean and safe... my main priorities. I was in town for surgery so was not looking for a nice vacation spot, just 1 night for me and 2 more for my friend  and small dog while I was in the hospital. I prefer to stay at nice hotels but was on a major budget with my surgery. I am picky about cleanliness and I had no concerns sleeping here. The room was very clean. Motel 6 has done a great job updating across the country. I love the no carpet! I brought a travel size shampoo and my own bath products... I prefer my own anyway. Forgot my blowdryer but made due. Big Lots is right across the parking lot if you need smthg. Had to leave early for the hospital and the front desk attendant was kind to hurry up some coffee for my friend as we headed out. The pool looked great. Very clean. The parking lot is a bit sketchy at night but people were nice and I felt safe. I will be staying for a couple of nights this week for my surgery follow up. Hope to make it to the pool. I lived in the area for years. This is a perfect location to day trip to Galveston, the Space Center, Kemah, Houston,...  Remember... this is Motel 6. Under $50 a night for a clean room, fridge, and microwave, no extra perks. That's how they...Clean and safe... my main priorities. I was in town for surgery so was not looking for a nice vacation spot, just 1 night for me and 2 more for my friend  and small dog while I was in the hospital. I prefer to stay at nice hotels but was on a major budget with my surgery. I am picky about cleanliness and I had no concerns sleeping here. The room was very clean. Motel 6 has done a great job updating across the country. I love the no carpet! I brought a travel size shampoo and my own bath products... I prefer my own anyway. Forgot my blowdryer but made due. Big Lots is right across the parking lot if you need smthg. Had to leave early for the hospital and the front desk attendant was kind to hurry up some coffee for my friend as we headed out. The pool looked great. Very clean. The parking lot is a bit sketchy at night but people were nice and I felt safe. I will be staying for a couple of nights this week for my surgery follow up. Hope to make it to the pool. I lived in the area for years. This is a perfect location to day trip to Galveston, the Space Center, Kemah, Houston,...  Remember... this is Motel 6. Under $50 a night for a clean room, fridge, and microwave, no extra perks. That's how they can keep their rooms so inexpensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Clean and safe... my main priorities. I was in town for surgery so was not looking for a nice vacation spot, just 1 night for me and 2 more for my friend  and small dog while I was in the hospital. I prefer to stay at nice hotels but was on a major budget with my surgery. I am picky about cleanliness and I had no concerns sleeping here. The room was very clean. Motel 6 has done a great job updating across the country. I love the no carpet! I brought a travel size shampoo and my own bath products... I prefer my own anyway. Forgot my blowdryer but made due. Big Lots is right across the parking lot if you need smthg. Had to leave early for the hospital and the front desk attendant was kind to hurry up some coffee for my friend as we headed out. The pool looked great. Very clean. The parking lot is a bit sketchy at night but people were nice and I felt safe. I will be staying for a couple of nights this week for my surgery follow up. Hope to make it to the pool. I lived in the area for years. This is a perfect location to day trip to Galveston, the Space Center, Kemah, Houston,...  Remember... this is Motel 6. Under $50 a night for a clean room, fridge, and microwave, no extra perks. That's how they...Clean and safe... my main priorities. I was in town for surgery so was not looking for a nice vacation spot, just 1 night for me and 2 more for my friend  and small dog while I was in the hospital. I prefer to stay at nice hotels but was on a major budget with my surgery. I am picky about cleanliness and I had no concerns sleeping here. The room was very clean. Motel 6 has done a great job updating across the country. I love the no carpet! I brought a travel size shampoo and my own bath products... I prefer my own anyway. Forgot my blowdryer but made due. Big Lots is right across the parking lot if you need smthg. Had to leave early for the hospital and the front desk attendant was kind to hurry up some coffee for my friend as we headed out. The pool looked great. Very clean. The parking lot is a bit sketchy at night but people were nice and I felt safe. I will be staying for a couple of nights this week for my surgery follow up. Hope to make it to the pool. I lived in the area for years. This is a perfect location to day trip to Galveston, the Space Center, Kemah, Houston,...  Remember... this is Motel 6. Under $50 a night for a clean room, fridge, and microwave, no extra perks. That's how they can keep their rooms so inexpensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r380293045-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>380293045</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Just enough</t>
+  </si>
+  <si>
+    <t>We stayed here to visit NASA and basically the hotel has the minimum. Well located if you are going to NASA or Kemah, all others are very far away.Rooms are very clean, but they don't have safe, fridge or microwave, that makes things complicated. It is affordable but comparing with other in similar rates, Motel 6 lost the battle.Wifi is paid and not very good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r346973022-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>346973022</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>ok for one night</t>
+  </si>
+  <si>
+    <t>I stayed in room 261, an end room which worked out rather well. The motel is located on busy NASA Road 1. On the outside not much different than any other Motel 6. On the inside there was simulated wood floors and 2 queen beds which were quite comfortable.  Things that could use improvement:  no shampoo, no conditioner, cable TV channels were aweful, no Kleenex; no closet but a rod with some hangers worked out ok.  The hot water in the sink seemed to never get hot but the tub water was the proper temperature.  The a/c never got warm enough even though i set it to 80 deg; it was not uncomfortable, just not warm enough.  You have to pay for wifi unfortunately.The location is convenient to malls, restaurants but it still looks somewhat rundown. Staff was nice enough and even though there were no other amenities such as breakfast it was ok for $64. cost. The interior of the room was clean and there was no damage to the room or furniture as you might expect.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I stayed in room 261, an end room which worked out rather well. The motel is located on busy NASA Road 1. On the outside not much different than any other Motel 6. On the inside there was simulated wood floors and 2 queen beds which were quite comfortable.  Things that could use improvement:  no shampoo, no conditioner, cable TV channels were aweful, no Kleenex; no closet but a rod with some hangers worked out ok.  The hot water in the sink seemed to never get hot but the tub water was the proper temperature.  The a/c never got warm enough even though i set it to 80 deg; it was not uncomfortable, just not warm enough.  You have to pay for wifi unfortunately.The location is convenient to malls, restaurants but it still looks somewhat rundown. Staff was nice enough and even though there were no other amenities such as breakfast it was ok for $64. cost. The interior of the room was clean and there was no damage to the room or furniture as you might expect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r330931643-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>330931643</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>I like this hotel no clue why</t>
+  </si>
+  <si>
+    <t>For business reasons I ended up here a few times.  I like this hotel but I'm not sure why.  The room is adequate with blue and white walls. The beds are tightly made with blue and white covers.  There is a Waffle House close.  The heater was noisy but no surprise.  Three small towels  they allow pets so there is no carpet.  The people upstairs had unleashed pit bulls.  The television is adequate and our room in the back was relatively quiet. For some reason the cops sit idling back here. I am not sure if they are looking for someone or just testing their eyes.  All in all I think it is worth the price. Your mileage may varyMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>For business reasons I ended up here a few times.  I like this hotel but I'm not sure why.  The room is adequate with blue and white walls. The beds are tightly made with blue and white covers.  There is a Waffle House close.  The heater was noisy but no surprise.  Three small towels  they allow pets so there is no carpet.  The people upstairs had unleashed pit bulls.  The television is adequate and our room in the back was relatively quiet. For some reason the cops sit idling back here. I am not sure if they are looking for someone or just testing their eyes.  All in all I think it is worth the price. Your mileage may varyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r329537463-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>329537463</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed feelings </t>
+  </si>
+  <si>
+    <t>I booked three rooms for two nights during the Thanksgiving holiday. I walked into the room and I was slightly impressed with the room. The decor was modern and the room was clean. I had no issues with my room. The other two rooms, did. The first night, my brother was graced with a mouse's presence. That's never a good thing. They didn't want to spend another night so they checked out. After haggling between the manager and Travelocity, I got refunded both nights. On the second night, in the other room, same thing happened. This time my parents were graced with the mouse's presence. Again we complained, but didn't get any compensation for this room. So, I had no issues but they certainly did...and a scary one too. Btw, the rooms with the mouse were 236 and 238. So if you still wanna stay there...refuse those rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Houston NASA, responded to this reviewResponded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2015</t>
+  </si>
+  <si>
+    <t>I booked three rooms for two nights during the Thanksgiving holiday. I walked into the room and I was slightly impressed with the room. The decor was modern and the room was clean. I had no issues with my room. The other two rooms, did. The first night, my brother was graced with a mouse's presence. That's never a good thing. They didn't want to spend another night so they checked out. After haggling between the manager and Travelocity, I got refunded both nights. On the second night, in the other room, same thing happened. This time my parents were graced with the mouse's presence. Again we complained, but didn't get any compensation for this room. So, I had no issues but they certainly did...and a scary one too. Btw, the rooms with the mouse were 236 and 238. So if you still wanna stay there...refuse those rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r293349128-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>293349128</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Not Good</t>
+  </si>
+  <si>
+    <t>We book Single king bed on line for two nights initially since we were visiting Galveston beach and JSC.We have to change room immediately upon check in because there was no air-conditioning the room  and water all over floor dripping of the AC unit, next room we were given was a full of smoke smell (we specifically ask for a NON SMOKING room when we book on line and in person when we check in). Hard to believe MOTEL 6 keeps their light on for you, but they don’t want you to give a very basic amenity like Wi-Fi. You have to pay to use WIFI. Room price are high, we paid $65 plus tax camper to few other Motels around same area where in same price you can get free Wi-Fi and basic breakfast. No coffee machine, refrigerator or microwave in room.This place is very close to Johnson space center about 5 minutes drive and about 30 minutes drive to Galveston beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston NASA, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>We book Single king bed on line for two nights initially since we were visiting Galveston beach and JSC.We have to change room immediately upon check in because there was no air-conditioning the room  and water all over floor dripping of the AC unit, next room we were given was a full of smoke smell (we specifically ask for a NON SMOKING room when we book on line and in person when we check in). Hard to believe MOTEL 6 keeps their light on for you, but they don’t want you to give a very basic amenity like Wi-Fi. You have to pay to use WIFI. Room price are high, we paid $65 plus tax camper to few other Motels around same area where in same price you can get free Wi-Fi and basic breakfast. No coffee machine, refrigerator or microwave in room.This place is very close to Johnson space center about 5 minutes drive and about 30 minutes drive to Galveston beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r288867994-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>288867994</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Speckled Trout Heaven</t>
+  </si>
+  <si>
+    <t>This Motel 6 is the friendliest and cleanest hotel I have ever been in.  I have stayed here 6 times the last 8 years and have always had a wonderful experience with a clean and cool room on the hottest days of the year.  The staff is the friendliest and the front desk will even call you back when they find they owe you money!  I didn't mind turning around.  I was the one leaving early.  I didn't think about the extra day I had paid for because I had such a wonderful week.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r270156408-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>270156408</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>OK for the Price</t>
+  </si>
+  <si>
+    <t>Overall the price made it an OK stay. Loved the fact that there was no carpet in the place; beds were comfortable; and overall clean.My score would improve if there was more attention to detail. Behind the bathroom door looked like it never been cleaned. The door to the fridge was falling off and leaking; called front desk and reported it but no follow up. The trash at the back of the property was over following from the dumpster.Also there was a little unsafe feeling to the place. We saw police activity at the property and there seemed to be people living there long term.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r261669948-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>261669948</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>This is a decent Hotel clean rooms the comforter had alot of cigarette burns on it but clean</t>
+  </si>
+  <si>
+    <t>This is a decent hotel located off I45  there are no cameras so dont leave expensive stuff in your car or truck. You have to pay for wifi whick I think is ridiculous all in all decent place close to kemah and good restaurants.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r254376989-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>254376989</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Valentine's getaway for a day turned into a nightmare</t>
+  </si>
+  <si>
+    <t>Last minute, booked a Valentines day cruise nearby in Kemah so we decided to stay here because of the low rates and based on the reviews that it was clean and comfy beds. Check in was easy, we booked handicap accommodations so was suppose to have roll in shower. However, our room turned out to be in the second floor without any handicap accommodations. I didn't make a big deal of that, the room looked modern and smelled nice for a Motel 6. Upon entering the room I noticed the shower tub had some type of stain/scratches but tried not to pay that any mind either. I do know that you get what you paid for. The water took a few minutes to warm up in both the tub and sink. The A/C was good. Beds were very comfy. Pool looked ok. 
+Left and returned back to the room at 2am and you could literally hear every word spoken from the next door guests. The walls are SUPER thin, and it was hard for us to fall asleep due to the noise level from the room next door. We woke up from our sleep at 4:49am from the next door guests screaming saying they were gonna kill someone. I attempted to call the front office and the line was busy. I attempted to contact the front desk 8 times and no one ever answered so we were close to calling...Last minute, booked a Valentines day cruise nearby in Kemah so we decided to stay here because of the low rates and based on the reviews that it was clean and comfy beds. Check in was easy, we booked handicap accommodations so was suppose to have roll in shower. However, our room turned out to be in the second floor without any handicap accommodations. I didn't make a big deal of that, the room looked modern and smelled nice for a Motel 6. Upon entering the room I noticed the shower tub had some type of stain/scratches but tried not to pay that any mind either. I do know that you get what you paid for. The water took a few minutes to warm up in both the tub and sink. The A/C was good. Beds were very comfy. Pool looked ok. Left and returned back to the room at 2am and you could literally hear every word spoken from the next door guests. The walls are SUPER thin, and it was hard for us to fall asleep due to the noise level from the room next door. We woke up from our sleep at 4:49am from the next door guests screaming saying they were gonna kill someone. I attempted to call the front office and the line was busy. I attempted to contact the front desk 8 times and no one ever answered so we were close to calling Law Enforcement. We didn't know the room number next door and wanted to remain safe in our room so we had to wait it out. I called Texas City Motel 6 and they told us someone should always be at the front desk. Finally after 30mins they calmed down and we tried to get some sleep.  Bottom line, this area is hood, and I felt uncomfortable stopping at the local gas station. The front desk should always be available during emergencies to ensure the safety of its guests. We would never be staying here again ever. The bad outweigh the good for me so good luck with saving those few dollars. Not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Last minute, booked a Valentines day cruise nearby in Kemah so we decided to stay here because of the low rates and based on the reviews that it was clean and comfy beds. Check in was easy, we booked handicap accommodations so was suppose to have roll in shower. However, our room turned out to be in the second floor without any handicap accommodations. I didn't make a big deal of that, the room looked modern and smelled nice for a Motel 6. Upon entering the room I noticed the shower tub had some type of stain/scratches but tried not to pay that any mind either. I do know that you get what you paid for. The water took a few minutes to warm up in both the tub and sink. The A/C was good. Beds were very comfy. Pool looked ok. 
+Left and returned back to the room at 2am and you could literally hear every word spoken from the next door guests. The walls are SUPER thin, and it was hard for us to fall asleep due to the noise level from the room next door. We woke up from our sleep at 4:49am from the next door guests screaming saying they were gonna kill someone. I attempted to call the front office and the line was busy. I attempted to contact the front desk 8 times and no one ever answered so we were close to calling...Last minute, booked a Valentines day cruise nearby in Kemah so we decided to stay here because of the low rates and based on the reviews that it was clean and comfy beds. Check in was easy, we booked handicap accommodations so was suppose to have roll in shower. However, our room turned out to be in the second floor without any handicap accommodations. I didn't make a big deal of that, the room looked modern and smelled nice for a Motel 6. Upon entering the room I noticed the shower tub had some type of stain/scratches but tried not to pay that any mind either. I do know that you get what you paid for. The water took a few minutes to warm up in both the tub and sink. The A/C was good. Beds were very comfy. Pool looked ok. Left and returned back to the room at 2am and you could literally hear every word spoken from the next door guests. The walls are SUPER thin, and it was hard for us to fall asleep due to the noise level from the room next door. We woke up from our sleep at 4:49am from the next door guests screaming saying they were gonna kill someone. I attempted to call the front office and the line was busy. I attempted to contact the front desk 8 times and no one ever answered so we were close to calling Law Enforcement. We didn't know the room number next door and wanted to remain safe in our room so we had to wait it out. I called Texas City Motel 6 and they told us someone should always be at the front desk. Finally after 30mins they calmed down and we tried to get some sleep.  Bottom line, this area is hood, and I felt uncomfortable stopping at the local gas station. The front desk should always be available during emergencies to ensure the safety of its guests. We would never be staying here again ever. The bad outweigh the good for me so good luck with saving those few dollars. Not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r248038147-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>248038147</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>No Wi Fi</t>
+  </si>
+  <si>
+    <t>Nowadays Wi Fi is elemental. At this hotel you will not find this service, but if you want it, you have to pay 4 or 5 dollars more. Unfortunatly, the wi fi service you pay is terrible. If you do not want wi fi, the facilities are good and the fare is cheap.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston NASA, responded to this reviewResponded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Nowadays Wi Fi is elemental. At this hotel you will not find this service, but if you want it, you have to pay 4 or 5 dollars more. Unfortunatly, the wi fi service you pay is terrible. If you do not want wi fi, the facilities are good and the fare is cheap.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r219109212-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>219109212</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Clean, safe and cheap!</t>
+  </si>
+  <si>
+    <t>This is the best of my 3 stays at this location. The person at the front desk was friendly and very helpful. The room was clean and it seemed like a safe location. This is not a great place but if you are trying to save money and want a good location then this is a good choice.The BIG negative is that they charge for WIFI - what hotel in they day charges for WIFI? They need to change this policy.We traveled with a friend this time and they felt the same abut their room - good rate, safe and clean.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r218553907-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>218553907</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>As a last choice, yes. Otherwise, no.</t>
+  </si>
+  <si>
+    <t>1. We can't seem to get a trash can for our room. Called the desk twice, no can.2. Just found some sort of mass (food?) stuck to the wall on the side of the bed. 3. The people however are nice. The housekeeper does not speak English but tries hard to see to our needs, such as towels.4. The place only supplies those little tiny bars of soap, so don't forget your own!5. The pool is nice.I won't condemn the place, it's a good all-else-fails motel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r217235971-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>217235971</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Only stay here if you absolutely have no other option.</t>
+  </si>
+  <si>
+    <t>If you just need a place to rest for a few hours would I recommend staying here. This was far below the normally pleasant experience I have at the Motel 6 chain of hotels. "Icky" is the most appropriate word I can use to describe this Motel 6. Walking into the room, I felt like I was stepping into a room at some sort of medical institution. The room was lacking in several basic amenities, including a coffee maker and free wifi. The floor was sticky and the bedding left much to be desired. But for the fact that we had driven six hours and were so tired we could hardly keep our eyes open, we would have tried to find another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you just need a place to rest for a few hours would I recommend staying here. This was far below the normally pleasant experience I have at the Motel 6 chain of hotels. "Icky" is the most appropriate word I can use to describe this Motel 6. Walking into the room, I felt like I was stepping into a room at some sort of medical institution. The room was lacking in several basic amenities, including a coffee maker and free wifi. The floor was sticky and the bedding left much to be desired. But for the fact that we had driven six hours and were so tired we could hardly keep our eyes open, we would have tried to find another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r164309771-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>164309771</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Its fine if you just need a bed and a shower</t>
+  </si>
+  <si>
+    <t>This is a newer remodeled motel 6. There is not many places in the area that take pets  we were visiting a friend and this one accepted pets free of charge. The pros are its centrally located just off the freeway, the rooms are remodeled very ikea like with hardwood floors instead of carpet. I only saw 1 roach but I doubt it was related to cleanliness I feel it more has to do with the extreme heat there is just no way to keep them all out but it was small and by the door so it may have just walked in when we had door to room open. Flat screen tv is a nice addition. overall I cannot see how you could ask for more considering the price. wifi is $2.99 a day PER device but it worked fine. I would not hesitate to use this facility again. we did not use the pool but it was always clean and many others were swimming in it. For us it was just a place to lay our head at night as we were out and about in the day. tip would be to stay toward back of building as its quitter and you don't have as much traffic noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>This is a newer remodeled motel 6. There is not many places in the area that take pets  we were visiting a friend and this one accepted pets free of charge. The pros are its centrally located just off the freeway, the rooms are remodeled very ikea like with hardwood floors instead of carpet. I only saw 1 roach but I doubt it was related to cleanliness I feel it more has to do with the extreme heat there is just no way to keep them all out but it was small and by the door so it may have just walked in when we had door to room open. Flat screen tv is a nice addition. overall I cannot see how you could ask for more considering the price. wifi is $2.99 a day PER device but it worked fine. I would not hesitate to use this facility again. we did not use the pool but it was always clean and many others were swimming in it. For us it was just a place to lay our head at night as we were out and about in the day. tip would be to stay toward back of building as its quitter and you don't have as much traffic noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r162616672-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>162616672</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>nice stay for the value</t>
+  </si>
+  <si>
+    <t>we arrived early and were allowed to check in. Which after a long drive was greatly appreciated. Shortly after settling in the room next to us had a dog that started barking and scratching at the adjoining door. We complained to front desk and they quickly changed our room. They told us they were unaware that there was a dog in that room as we had requested not near any pets. They moved us closer to the pool which was clean and well maintained. As we have one ourselves at home. It could use some shade around the pool  but overall we would go back.We did not like having to pay for the wi-fi though($2.99).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>we arrived early and were allowed to check in. Which after a long drive was greatly appreciated. Shortly after settling in the room next to us had a dog that started barking and scratching at the adjoining door. We complained to front desk and they quickly changed our room. They told us they were unaware that there was a dog in that room as we had requested not near any pets. They moved us closer to the pool which was clean and well maintained. As we have one ourselves at home. It could use some shade around the pool  but overall we would go back.We did not like having to pay for the wi-fi though($2.99).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r160333711-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>160333711</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>This Motel 6 has been remodeled and is conveniently located.  Check in was very fast and we got a downstairs room as we requested.  The staff was friendly and courteous. The room was larger then normal and very clean - both the room and bathroom have been updated.  Beds were comfortable and it was quiet at night.  Paid extra ($3. a day) for wifi, but had no complaints - worked great. There is a very nice large pool and lots of parking.  We used the laundry facilities (washer &amp; dryer) while we were there  and they worked fine.  We travel with our small dog and usually stay at Motel 6 - this is one of the nicer ones we have stayed at.  We will stay here again when we are in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>This Motel 6 has been remodeled and is conveniently located.  Check in was very fast and we got a downstairs room as we requested.  The staff was friendly and courteous. The room was larger then normal and very clean - both the room and bathroom have been updated.  Beds were comfortable and it was quiet at night.  Paid extra ($3. a day) for wifi, but had no complaints - worked great. There is a very nice large pool and lots of parking.  We used the laundry facilities (washer &amp; dryer) while we were there  and they worked fine.  We travel with our small dog and usually stay at Motel 6 - this is one of the nicer ones we have stayed at.  We will stay here again when we are in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r134391728-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>134391728</t>
+  </si>
+  <si>
+    <t>07/14/2012</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>I stayed 2nights in motel 6 in Webster and I will never be back! We left the room and returned 8hours later to find  that my items had been gone through, some personel food and drinks were taken and the room was poorly cleaned and bed lazily made. This is crap! If you stay here, lock your belongings up.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r131495851-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>131495851</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Not a good place to stay if...</t>
+  </si>
+  <si>
+    <t>The Motel 6  chain is known for cheap hotels and this is in fact a cheap place to stay. The price was good but you do not get much other than a room and a bed. so, if that is all you are interested in then this is an OK place o stay. However, if you want a little more then find another hotel - ANY hotel.
+First, the Motel 6 policy of charging $3.00 ($2.99) for Wifi is absurd and simply a way to jack up the room another 3 dollars every night you stay. Wifi comes free with all Internet 'hook-ups' these days so there is no cost to them... just to you. I stayed in a Motel 6 in Brownsville, Texas 2 days before I got to Houston and there was no charge!
+The room was NOt cleaned. We returned to the room at 9pm and the room had still not been cleaned. We asked that they empty trash and change the towels and NOt do the beds. They did send someone over in about 15 minutes with towels and asked us to put the trash outside the door (NOT cool!). When I turned the TV on it did not work - it was a bad control, however, they would NOT send anyone from the office with another control. Our room was at the far end of the lot and it was simply a 'pain' in the...The Motel 6  chain is known for cheap hotels and this is in fact a cheap place to stay. The price was good but you do not get much other than a room and a bed. so, if that is all you are interested in then this is an OK place o stay. However, if you want a little more then find another hotel - ANY hotel.First, the Motel 6 policy of charging $3.00 ($2.99) for Wifi is absurd and simply a way to jack up the room another 3 dollars every night you stay. Wifi comes free with all Internet 'hook-ups' these days so there is no cost to them... just to you. I stayed in a Motel 6 in Brownsville, Texas 2 days before I got to Houston and there was no charge!The room was NOt cleaned. We returned to the room at 9pm and the room had still not been cleaned. We asked that they empty trash and change the towels and NOt do the beds. They did send someone over in about 15 minutes with towels and asked us to put the trash outside the door (NOT cool!). When I turned the TV on it did not work - it was a bad control, however, they would NOT send anyone from the office with another control. Our room was at the far end of the lot and it was simply a 'pain' in the "A" to have to get back out and go to the office. The attendant in the office was rude and very unpleasant to deal with (Still not sure if it was a male or female attendant.) The 'new' control worked for one day and had to be replaced!The next morning when I went out you could see from the balcony all the dog 'poop' between the rooms and the pool area - good think we did not walk there during the night!The only good thing was - as I said - the price... and the young lady that worked the day shift. She was quite pleasant and cared about the people that stayed in their location.There are zero extras - coffee maker, hair-dryer etc. It is a cheap stay (but not as cheap as you think when you add on an extra charge each night for Internet - this is a VERY bad policy and they should stop. Every hotel in the area gives you free Wifi - except this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>The Motel 6  chain is known for cheap hotels and this is in fact a cheap place to stay. The price was good but you do not get much other than a room and a bed. so, if that is all you are interested in then this is an OK place o stay. However, if you want a little more then find another hotel - ANY hotel.
+First, the Motel 6 policy of charging $3.00 ($2.99) for Wifi is absurd and simply a way to jack up the room another 3 dollars every night you stay. Wifi comes free with all Internet 'hook-ups' these days so there is no cost to them... just to you. I stayed in a Motel 6 in Brownsville, Texas 2 days before I got to Houston and there was no charge!
+The room was NOt cleaned. We returned to the room at 9pm and the room had still not been cleaned. We asked that they empty trash and change the towels and NOt do the beds. They did send someone over in about 15 minutes with towels and asked us to put the trash outside the door (NOT cool!). When I turned the TV on it did not work - it was a bad control, however, they would NOT send anyone from the office with another control. Our room was at the far end of the lot and it was simply a 'pain' in the...The Motel 6  chain is known for cheap hotels and this is in fact a cheap place to stay. The price was good but you do not get much other than a room and a bed. so, if that is all you are interested in then this is an OK place o stay. However, if you want a little more then find another hotel - ANY hotel.First, the Motel 6 policy of charging $3.00 ($2.99) for Wifi is absurd and simply a way to jack up the room another 3 dollars every night you stay. Wifi comes free with all Internet 'hook-ups' these days so there is no cost to them... just to you. I stayed in a Motel 6 in Brownsville, Texas 2 days before I got to Houston and there was no charge!The room was NOt cleaned. We returned to the room at 9pm and the room had still not been cleaned. We asked that they empty trash and change the towels and NOt do the beds. They did send someone over in about 15 minutes with towels and asked us to put the trash outside the door (NOT cool!). When I turned the TV on it did not work - it was a bad control, however, they would NOT send anyone from the office with another control. Our room was at the far end of the lot and it was simply a 'pain' in the "A" to have to get back out and go to the office. The attendant in the office was rude and very unpleasant to deal with (Still not sure if it was a male or female attendant.) The 'new' control worked for one day and had to be replaced!The next morning when I went out you could see from the balcony all the dog 'poop' between the rooms and the pool area - good think we did not walk there during the night!The only good thing was - as I said - the price... and the young lady that worked the day shift. She was quite pleasant and cared about the people that stayed in their location.There are zero extras - coffee maker, hair-dryer etc. It is a cheap stay (but not as cheap as you think when you add on an extra charge each night for Internet - this is a VERY bad policy and they should stop. Every hotel in the area gives you free Wifi - except this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r128256851-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>128256851</t>
+  </si>
+  <si>
+    <t>04/20/2012</t>
+  </si>
+  <si>
+    <t>Day Time is okay - avoid the nights</t>
+  </si>
+  <si>
+    <t>1.  Polite staff 2. Close to eateries and tourist attractions3. Cheap RatesAND NOW FOR THE TRAVELER BEWARE.1.  Drinking and Fighting  in parking lot (after asking around town -  seems this is not unusual      at this motel)2.  People kicked and banged on doors to rooms that were not theirs during late night and early      morning hours3.  Carpets was dirty, took shower walked to bed and had to go wash feet again and put on      slippers4.  Dog poop everywhere there is grass and even by the grassy area at pool fence     shame on travelers who don't pick up BUT double shame on Hotel for not keeping grounds      clean and monitoring5.  WIFI is a daily fee - not free6.  If you ask staff if motel is Safe -  they assure you it is -  But I firmly believe it is only Safe      because the Police do monitor and respond quickly7.  Door knob fell off in my hand when I turned it  I would not ever stay here again and I would not recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>1.  Polite staff 2. Close to eateries and tourist attractions3. Cheap RatesAND NOW FOR THE TRAVELER BEWARE.1.  Drinking and Fighting  in parking lot (after asking around town -  seems this is not unusual      at this motel)2.  People kicked and banged on doors to rooms that were not theirs during late night and early      morning hours3.  Carpets was dirty, took shower walked to bed and had to go wash feet again and put on      slippers4.  Dog poop everywhere there is grass and even by the grassy area at pool fence     shame on travelers who don't pick up BUT double shame on Hotel for not keeping grounds      clean and monitoring5.  WIFI is a daily fee - not free6.  If you ask staff if motel is Safe -  they assure you it is -  But I firmly believe it is only Safe      because the Police do monitor and respond quickly7.  Door knob fell off in my hand when I turned it  I would not ever stay here again and I would not recommendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r116285128-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>116285128</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>Always my home in Webster</t>
+  </si>
+  <si>
+    <t>My kids and I frequently stay here because of the location, price, and service. And the pool is great!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r94568982-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>94568982</t>
+  </si>
+  <si>
+    <t>01/27/2011</t>
+  </si>
+  <si>
+    <t>A decent place, recently refurbished</t>
+  </si>
+  <si>
+    <t>This property was quite nice, given it is merely a motel. I think they have recently refurbished the rooms, they are now all in the 'new style' Motel 6 decor. The location is somewhat detached from the highway which is nice in terms of noise. Our room was facing the opposite side to the highway, so it was almost totally quiet. Would come back if I am in the area. Also nice in case you want to visit the Nasa facilities.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r86736611-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>86736611</t>
+  </si>
+  <si>
+    <t>11/11/2010</t>
+  </si>
+  <si>
+    <t>Clean and Quiet</t>
+  </si>
+  <si>
+    <t>I stayed here because I wanted a cheap rate to keep my traveling costs down.  The front desk help was friendly and efficient.  The large room was very clean and had recently been renovated. It had a large Philips flat screen TV but few other perks. But, if you want perks, you should stay at the W for $500 / night! If you're on a budget and don't need the frills, I highly recommend it.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r59249647-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>59249647</t>
+  </si>
+  <si>
+    <t>03/22/2010</t>
+  </si>
+  <si>
+    <t>you get what you pay for</t>
+  </si>
+  <si>
+    <t>this motel was the closet to galveston, tx for spring break motel was neat and clean for the money if u r on a budget. only thing was we had made  a reservation because we were coming from dallas called twice to confirm room front desk did not tell me I had to give my credit card to reserve room when I finally made it about 10:30pm they did not have my room. the only room they had was one with no tv, it was the only closet motel to galveston that was available during spring break.We got the room for $31.00 normally it would of been $47.00 a night so we got 2 nights all together for 64.00 wihch saved us about $50 dollars luckly we brought along our computer so if wanted to watch tv we watch it on it. other than that room was ok for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>this motel was the closet to galveston, tx for spring break motel was neat and clean for the money if u r on a budget. only thing was we had made  a reservation because we were coming from dallas called twice to confirm room front desk did not tell me I had to give my credit card to reserve room when I finally made it about 10:30pm they did not have my room. the only room they had was one with no tv, it was the only closet motel to galveston that was available during spring break.We got the room for $31.00 normally it would of been $47.00 a night so we got 2 nights all together for 64.00 wihch saved us about $50 dollars luckly we brought along our computer so if wanted to watch tv we watch it on it. other than that room was ok for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r34792933-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>34792933</t>
+  </si>
+  <si>
+    <t>07/14/2009</t>
+  </si>
+  <si>
+    <t>Stanley makes you right at home!</t>
+  </si>
+  <si>
+    <t>Out of all the places in the Bay Area I choose this Motel 6. Rooms are always well kept. A.c. is on when you arrive which is extra comfortable. They really leave the light on for you. The premises are clean and shower stay hot!! Staff is very pleasant.  Stanley checked me in, it was quick, easy, and enojoyable. Stayed friendly and kept a smile. Overall its a wonderful expierience!</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r20068366-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>20068366</t>
+  </si>
+  <si>
+    <t>09/14/2008</t>
+  </si>
+  <si>
+    <t>The closest and cheapest bed within 5 mintues of NASA.</t>
+  </si>
+  <si>
+    <t>Although it took us ages to get checked in, as we arrived in rush hour and the check-in woman was a control freak (in a nice way), this hotel is an excellent low cost motel. The room was clean and cool and the location was amazing (5 minutes drive to NASA). We stayed here for two nights one before a visit to NASA and one after and both rooms were fine. I would definitely recommend this if you are visiting Houston on a budget.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1388,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1420,2675 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>187</v>
+      </c>
+      <c r="X22" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>196</v>
+      </c>
+      <c r="X23" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>100</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>228</v>
+      </c>
+      <c r="X28" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>255</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" t="s">
+        <v>257</v>
+      </c>
+      <c r="K33" t="s">
+        <v>258</v>
+      </c>
+      <c r="L33" t="s">
+        <v>259</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>260</v>
+      </c>
+      <c r="O33" t="s">
+        <v>100</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>267</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s">
+        <v>278</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s">
+        <v>285</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>286</v>
+      </c>
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>289</v>
+      </c>
+      <c r="J38" t="s">
+        <v>290</v>
+      </c>
+      <c r="K38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L38" t="s">
+        <v>292</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J39" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" t="s">
+        <v>296</v>
+      </c>
+      <c r="L39" t="s">
+        <v>297</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>298</v>
+      </c>
+      <c r="O39" t="s">
+        <v>74</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>300</v>
+      </c>
+      <c r="J40" t="s">
+        <v>301</v>
+      </c>
+      <c r="K40" t="s">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s">
+        <v>303</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>304</v>
+      </c>
+      <c r="O40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>306</v>
+      </c>
+      <c r="J41" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" t="s">
+        <v>308</v>
+      </c>
+      <c r="L41" t="s">
+        <v>309</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>310</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" t="s">
+        <v>314</v>
+      </c>
+      <c r="K42" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>317</v>
+      </c>
+      <c r="O42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_497.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_497.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="506">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r614718913-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>56855</t>
+  </si>
+  <si>
+    <t>244395</t>
+  </si>
+  <si>
+    <t>614718913</t>
+  </si>
+  <si>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>Nice and quiet</t>
+  </si>
+  <si>
+    <t>Short stay but was nice and comfortable. Ailleen was super polite and respectful. Lots of good eateries around. You won’t find breakfast in house but Waffle House is next door. There is an awesome mall about 1 mile away. Will stay here when come this way again.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r602538336-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>602538336</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Never stayed at motel 6 before and decided to give it a try this time while on a business trip. I was very pleased with the room. Staff was very nice and lot of food places with in walking distance. There is an ATM from Bank of America within walking distance.Will stay here again if I come this way.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r601745270-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>601745270</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I had a excellent stay in this Motel 6, the staff are very friendly and accommodating. When I walked to the room it was so clean and pleasant. Cheap price and very accessible.  Definitely going back here.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r600283011-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
-    <t>56855</t>
-  </si>
-  <si>
-    <t>244395</t>
-  </si>
-  <si>
     <t>600283011</t>
   </si>
   <si>
@@ -174,9 +234,6 @@
     <t>Conveniently located near I 45. Close to Kemah boardwalk where we along with our kids enjoyed Friday fireworks. Plenty of restaurants around and a new shopping mall. In general we liked the facility. Staff was polite and professional.</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
@@ -195,10 +252,10 @@
     <t>BYOBait - for the MICE that is. When we arrived, it looked tidy and just as you'd expect of any other Motel 6. I *did* notice right by our front door - a suspect hole in the corner of the room, and what appeared to be rodent droppings. I dismissed my gut feeling and joined my family at the pool. We returned from our swim and settled in for the evening. Minutes after turning off the lights, we heard food packaging being messed with. I turned on my phone's flashlight and saw three mice run for the same hole I'd inspected earlier. We moved all of our food to the truck and zipped up our bags, but not before finding one last mouse who'd been hiding for cover in our son's overnight duffle. Surprise!MoreShow less</t>
   </si>
   <si>
-    <t>6Team, Brand Experience Team at Motel 6 Houston NASA, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>6Team, Brand Experience Team at Motel 6 Houston NASA, responded to this reviewResponded July 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2018</t>
   </si>
   <si>
     <t>BYOBait - for the MICE that is. When we arrived, it looked tidy and just as you'd expect of any other Motel 6. I *did* notice right by our front door - a suspect hole in the corner of the room, and what appeared to be rodent droppings. I dismissed my gut feeling and joined my family at the pool. We returned from our swim and settled in for the evening. Minutes after turning off the lights, we heard food packaging being messed with. I turned on my phone's flashlight and saw three mice run for the same hole I'd inspected earlier. We moved all of our food to the truck and zipped up our bags, but not before finding one last mouse who'd been hiding for cover in our son's overnight duffle. Surprise!More</t>
@@ -222,27 +279,51 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r591231889-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>591231889</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Pleasant stay!</t>
+  </si>
+  <si>
+    <t>I had a very wonderful stay while here for business. The front desk was very help with any questions I had. The rooms were keep tighty and clean with no lingering odors that some places have. Also the other guest we're blue collar type so I didn't have any issues or worries with them. If fact they were pretty friendly and had explained they had been staying there for sometime due to the hurricane and their insurance company not wanting to pay. Overall I had a great time staying and would definitely recommend as well as stay there again.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r591201073-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>591201073</t>
+  </si>
+  <si>
+    <t>Clean place and nice staff</t>
+  </si>
+  <si>
+    <t>It was quite late when I arrived. I could not open the door of the room, went back to front office. Clerk was super nice and walked me to my room and opened the door for me ( I had inserted the key wrong way). Room was huge and super clean. Then I asked for a late check out and clerk said “no problem”. I will definitely go back whenever I’m in town.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r591176789-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
     <t>591176789</t>
   </si>
   <si>
-    <t>06/27/2018</t>
-  </si>
-  <si>
     <t>A great motel</t>
   </si>
   <si>
     <t>Very comfortable and clean it was during the week. And the swimming pool was very clean as well. All high marks on my checklist. I will Definetly be doing business here again. Thank you for the great service.</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r591173290-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -255,9 +336,6 @@
     <t>Had a very good stay,rooms were very clean and it was quiet. It was very close to a lot of stores so it was a very convenient stay as well, Front desk we're very nice. Definitely will stay and recommend to friends.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r589252004-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -282,6 +360,36 @@
     <t>All of the staff were very kind and helpful. That was very much appreciated, with my unexpected stay. They have multiple bed size options, as well as the option for a mini fridge and microwave in your room. I'd definitely recommend this location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r588675816-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>588675816</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>We didn’t stay for too long but it is a clean and nice place. Staff was very pleasant also. Lots of restaurants around. A Waffle House is right next door. There is a new mall about 1 mile away.We will definitely stay here next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r584848392-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>584848392</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Value for money</t>
+  </si>
+  <si>
+    <t>We always stay at Motel 6. It’s reasonably priced and we enjoy our stay. Waffle House is right there with in twent steps. Just travel with your shampoo, conditioner. Front office has hair dryers and iron on demand. Staff is very nice and accommodating. We enjoyed our stay and would be back soon again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r583350680-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -295,9 +403,6 @@
   </si>
   <si>
     <t>This place is outstanding. Large, clean and comfortable rooms. Staff is super friendly and knowledgeable. There is a waffle house right next door and a IHOP about 2 miles away. Kids enjoyed pool all day long. Huge shopping mall nearby and tons of restaurants around. We will definitely come here again.</t>
-  </si>
-  <si>
-    <t>May 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r568926918-Motel_6_Houston_NASA-Webster_Texas.html</t>
@@ -347,6 +452,39 @@
 The bed was soft but comfortable.  There is a Waffle House right next door but if you want something different to eat you will have to drive a few miles.  I've tried different places to stay while in Webster.  While the price was right the amenities, PAID WiFi if you want it, and its location are not what I am looking for in a hotel/motel. I think it a great place for people on a tight budget or singles looking for one night before moving on.  The...This Motel 6 is convenient off I-45 as you drive either South or North through the Webster/NASA, TX area.  You can't miss the large A-Frame building that marks the office/registration building.  My room was clean but had only the basic necessities of a motel room.  The floor was all faux wood and there was NO rugs anywhere.  Besides the king sized bed I requested there was a small kitchen table and two chairs but no other seating was present.  The TV was mounted to the wall and was not adjustable for viewing on any angle.  The number of channels was good.  The bath towels were almost thread bare and were small compared to what your get at a higher priced facility.  The bathroom consisted of a sink separate from the toilet and bath/shower.  The sink was modern but there was NO hair dryer present.  The shower/Bath did not have an adjustable shower head.The bed was soft but comfortable.  There is a Waffle House right next door but if you want something different to eat you will have to drive a few miles.  I've tried different places to stay while in Webster.  While the price was right the amenities, PAID WiFi if you want it, and its location are not what I am looking for in a hotel/motel. I think it a great place for people on a tight budget or singles looking for one night before moving on.  The one PLUS was it was very quiet even thought it is an older design.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r563240293-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>563240293</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nice economy Motel </t>
+  </si>
+  <si>
+    <t>Nothing fancy. Nice and clean room. Very friendly staff. They don’t have breakfast but Waffle House is right next door. Plenty of shopping and restaurants around. I will definitely stay here again. Suits my pocket.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r489740202-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>489740202</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Mgr I Pradeep Kumar needs to be decent.</t>
+  </si>
+  <si>
+    <t>Request refrigerator &amp; micro.  Charge 4 refrigerator microwave &amp; their WiFi.  Charge 4 all is Pradeep Kumar manager I ability. Motel 6  check &amp; audit Mgr. Locals keep visitors at better place &amp; demeanor.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r483065793-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -360,9 +498,6 @@
   </si>
   <si>
     <t>The location is very convenient for visiting the NASA Space Center. The rooms are large and there is a free pool. However, the wifi is not free and the morning coffee is... well, forget about it. The receptionist seemed rather annoyed by our presence. Some rooms were without warm water while we were there. No hairdryer in the room. Clean, basic, relatively cheap, but services could be improved quite a lot.</t>
-  </si>
-  <si>
-    <t>May 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r480525120-Motel_6_Houston_NASA-Webster_Texas.html</t>
@@ -412,6 +547,51 @@
 I got my key,...I had previously stayed at Motel 6 at different locations with no problems but I was disappointed in this stay. I had advanced reservations for an accessible room due to recent knee replacement and the inability to get in and out of tub or low commode. I called an hour before check in time to see if room was available due to long commute and pain in knee. I was told that the room was not ready but would be at check in time (3 pm). Upon arrival at 3 pm I was told by  Sheila (Manager) that the room was not ready as the people from the night before requested late check out at 1 pm. I left and returned 30 minutes later to hear that they had checked out at 2PM and that she didn't know when the room would be ready. I sat in the tiny lobby to wait as I needed to sit down. A woman came in who had been called to the lobby by Sheila and was told that the room she needed to be moved into was ready but the computer wouldn't let Sheila move her to the room. At that point I told her I needed a bed to lie down due to pain and would take whatever she had. She checked me into the exact room the other woman had just been told she couldn't move to! I got my key, drove as close as I could to the regular room and took my luggage to the door, which would NOT open with the key!. I had to drag my luggage back to the car and drive back to the lobby. As I was in line waiting the woman who was supposed to to get the room I was given was also back. I mentioned I was having trouble getting into my room but that I couldn't get an accessible room as booked. She exclaimed that they LOVED the accessible room they were in and thought they were going to have to move out but at the last minute had been told they could stay in the accessible room!  I feel very strongly that this woman and her husband were allowed to stay in the room that was reserved for me so the staff wouldn't have to change the linens..... I did not confront Sheila and just got another key, which did work. However, when I arrived back at the room with my new key a workman was working on the door!  I told him it was just the key and I had a new one but that the safety lock was on the dresser top in the room so he fixed that. My room was right by the pool and it was noisy until well after dark, including a small dog that ran loose and had a shrill bark which was heard frequently. I love dogs and have one of my own but this one was very disruptive. The AC unit in the window had the vent adjusters broken off so there was no control of airflow. All in all this experience has turned me against Motel 6 and I will probably never use them again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r472665764-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>472665764</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>infested with mice</t>
+  </si>
+  <si>
+    <t>I've stayed in many hundreds of motels, but this is the first that had mice running around the room.  And it wasn't hard to see why: there was at least an inch gap between the door and the floor, nothing to stop them entering freely.  (This gap is also incredibly wasteful of energy).  I moved to another room--a lot of trouble--only to be woken up by rustling mice there too.   When I turned on the light they fled into the bathroom, where they were coming in through the wall where the toilet water pipe came through.  I closed the bathroom door and stuffed a towel under it and got through the night, but in the morning the bathroom floor was full of mouse turds.  The motel must know they have a problem as there are large mouse traps set up around the parking lot.  But when I mentioned the mice to the desk clerk, they played dumb.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Houston NASA, responded to this reviewResponded April 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed in many hundreds of motels, but this is the first that had mice running around the room.  And it wasn't hard to see why: there was at least an inch gap between the door and the floor, nothing to stop them entering freely.  (This gap is also incredibly wasteful of energy).  I moved to another room--a lot of trouble--only to be woken up by rustling mice there too.   When I turned on the light they fled into the bathroom, where they were coming in through the wall where the toilet water pipe came through.  I closed the bathroom door and stuffed a towel under it and got through the night, but in the morning the bathroom floor was full of mouse turds.  The motel must know they have a problem as there are large mouse traps set up around the parking lot.  But when I mentioned the mice to the desk clerk, they played dumb.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r466613728-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>466613728</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Never stay here</t>
+  </si>
+  <si>
+    <t>I stayed here on Valentine's weekend and have stayed here several times with no problem. The price is reasonable and they give veteran discounts so they are usually my first choice. On this night the people staying upstairs sounded like they were rearranging furniture from the moment we walked in the room. Around 2AM I had enough and called the front desk. The lady said she would call the police. The police came and went and the noise continued. The person I was with went upstairs to complain and said the woman answered the door like she was in a scene from Breaking Bad and the room smelled. At 5 AM I finally was pissed enough and checked out. I told the lady the noise had continued and I found a bag of what looked like crack or meth laying in the parking space next to my vehicle. I told her I wanted a free night or my money back. She told me to come back when the managers DK and Sheila were there. For three weeks the managers gave me the run around and said when I stayed in the past I always checked out at 5. I always stay until checkout so they lied and just didn't want to see with the problem. Unless you want your door locked I by the police never stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I stayed here on Valentine's weekend and have stayed here several times with no problem. The price is reasonable and they give veteran discounts so they are usually my first choice. On this night the people staying upstairs sounded like they were rearranging furniture from the moment we walked in the room. Around 2AM I had enough and called the front desk. The lady said she would call the police. The police came and went and the noise continued. The person I was with went upstairs to complain and said the woman answered the door like she was in a scene from Breaking Bad and the room smelled. At 5 AM I finally was pissed enough and checked out. I told the lady the noise had continued and I found a bag of what looked like crack or meth laying in the parking space next to my vehicle. I told her I wanted a free night or my money back. She told me to come back when the managers DK and Sheila were there. For three weeks the managers gave me the run around and said when I stayed in the past I always checked out at 5. I always stay until checkout so they lied and just didn't want to see with the problem. Unless you want your door locked I by the police never stay here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r442556854-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -469,6 +649,39 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r420369747-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>420369747</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Clean. comfortable room and friendly staff</t>
+  </si>
+  <si>
+    <t>Saw the commercial on TV and decided to give Motel 6 a try on my next stay. On my way to Galveston, I stopped in Webster Motel 6. Desk clerk was extremely friendly. It was an extremely hot day and when i entered in my room i was totally stumped with the nice and cool room. Certainly, its bare minimum amenities and you have to pay for wifi but for the price i paid, it still was a steal.Will always stay here whenever i am around.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r415771973-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>415771973</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Well managed always clean and good for pets too</t>
+  </si>
+  <si>
+    <t>I have no clue why this is one of my favorite motel six but it is.  The rooms are always clean and blue and white.  The desk personnel are very competent.  The pool is kept up. It is cheap.  Easy to get off and on 45. Also there is a Juarez grocery store and gas station across the street with good cheap food. It is half way between Kemal and Galveston and straight shot to NASA.  So.  Takes pets. The floors have no carpet.  Convenient. Cheap.  Waffle House right next store.  It just does not get any better for the price.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r414046668-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -484,9 +697,6 @@
     <t xml:space="preserve">I made the mistake and didn't pay attention when I made the reservation I guess but our room was a smoking room and the non smoking rooms reeked of smoke. So either way I couldn't stay another night especially with my kids. </t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r389773306-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -523,6 +733,57 @@
     <t>We stayed here to visit NASA and basically the hotel has the minimum. Well located if you are going to NASA or Kemah, all others are very far away.Rooms are very clean, but they don't have safe, fridge or microwave, that makes things complicated. It is affordable but comparing with other in similar rates, Motel 6 lost the battle.Wifi is paid and not very good.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r355889133-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>355889133</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>A clean, affordable hotel with great staff</t>
+  </si>
+  <si>
+    <t>After driving all night long en route to Galveston when I could not drive any longer, I made an exit and the first hotel I noticed was Motel 6. It was about 7:30 AM of a Friday morning and clerk did not hesitate to check me in. Extremely clean and spacious room and i slept like a baby for next seven hours. Needless to say how i felt when i woke up.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r347696110-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>347696110</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Serious Safety Issues</t>
+  </si>
+  <si>
+    <t>Let's start with the good things:
+Check in was easy and they had a room ready.
+Room looked like the picture &amp; was clean with a large flat screen TV.
+You could use the bathtub great since we had a toddler with us.
+Felt safe with the police parked across the street watching the place the entire time we were there.
+The not so good:
+We checked in around 3 then went out for supper around 5. When we came back around 7 our key cards would not work. While my husband went to the office to see what happened I stayed upstairs since it was cold, rainy and I had a sleepy toddler. While I was waiting two ladies came out of another room &amp; saw me waiting in front of room 238. They proceeded to tell me that the front desk had given them a key card to that room and they had gone in saw it was still occupied but used the bathroom before going back to the front desk to request another room. When my husband came back from the front desk they told him that they had checked us into the wrong room and we should be in room 234 &amp; gave him a key card to this room.  So we packed everything up &amp; went to room 234 which our key card did open but guess what someone else was in that room. They...Let's start with the good things:Check in was easy and they had a room ready.Room looked like the picture &amp; was clean with a large flat screen TV.You could use the bathtub great since we had a toddler with us.Felt safe with the police parked across the street watching the place the entire time we were there.The not so good:We checked in around 3 then went out for supper around 5. When we came back around 7 our key cards would not work. While my husband went to the office to see what happened I stayed upstairs since it was cold, rainy and I had a sleepy toddler. While I was waiting two ladies came out of another room &amp; saw me waiting in front of room 238. They proceeded to tell me that the front desk had given them a key card to that room and they had gone in saw it was still occupied but used the bathroom before going back to the front desk to request another room. When my husband came back from the front desk they told him that they had checked us into the wrong room and we should be in room 234 &amp; gave him a key card to this room.  So we packed everything up &amp; went to room 234 which our key card did open but guess what someone else was in that room. They had the safety lock on inside and a mans voice said "Give us a minute". Guess we were lucky they weren't armed. So we go back to room 238 and call the front desk to let them know 234 was occupied and we were just staying put as it was after 8 pm. The manager came &amp; apologized but was clueless on what was going on. He offered to move us to another room which we declined.I hope staff realizes that this is a serious safety issue. I am just glad we were not shot for walking into someone else's room &amp; that the people that came into our room were honest ,didn't take anything or harm us when we returned. I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Let's start with the good things:
+Check in was easy and they had a room ready.
+Room looked like the picture &amp; was clean with a large flat screen TV.
+You could use the bathtub great since we had a toddler with us.
+Felt safe with the police parked across the street watching the place the entire time we were there.
+The not so good:
+We checked in around 3 then went out for supper around 5. When we came back around 7 our key cards would not work. While my husband went to the office to see what happened I stayed upstairs since it was cold, rainy and I had a sleepy toddler. While I was waiting two ladies came out of another room &amp; saw me waiting in front of room 238. They proceeded to tell me that the front desk had given them a key card to that room and they had gone in saw it was still occupied but used the bathroom before going back to the front desk to request another room. When my husband came back from the front desk they told him that they had checked us into the wrong room and we should be in room 234 &amp; gave him a key card to this room.  So we packed everything up &amp; went to room 234 which our key card did open but guess what someone else was in that room. They...Let's start with the good things:Check in was easy and they had a room ready.Room looked like the picture &amp; was clean with a large flat screen TV.You could use the bathtub great since we had a toddler with us.Felt safe with the police parked across the street watching the place the entire time we were there.The not so good:We checked in around 3 then went out for supper around 5. When we came back around 7 our key cards would not work. While my husband went to the office to see what happened I stayed upstairs since it was cold, rainy and I had a sleepy toddler. While I was waiting two ladies came out of another room &amp; saw me waiting in front of room 238. They proceeded to tell me that the front desk had given them a key card to that room and they had gone in saw it was still occupied but used the bathroom before going back to the front desk to request another room. When my husband came back from the front desk they told him that they had checked us into the wrong room and we should be in room 234 &amp; gave him a key card to this room.  So we packed everything up &amp; went to room 234 which our key card did open but guess what someone else was in that room. They had the safety lock on inside and a mans voice said "Give us a minute". Guess we were lucky they weren't armed. So we go back to room 238 and call the front desk to let them know 234 was occupied and we were just staying put as it was after 8 pm. The manager came &amp; apologized but was clueless on what was going on. He offered to move us to another room which we declined.I hope staff realizes that this is a serious safety issue. I am just glad we were not shot for walking into someone else's room &amp; that the people that came into our room were honest ,didn't take anything or harm us when we returned. I would not stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r346973022-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -538,9 +799,6 @@
     <t>I stayed in room 261, an end room which worked out rather well. The motel is located on busy NASA Road 1. On the outside not much different than any other Motel 6. On the inside there was simulated wood floors and 2 queen beds which were quite comfortable.  Things that could use improvement:  no shampoo, no conditioner, cable TV channels were aweful, no Kleenex; no closet but a rod with some hangers worked out ok.  The hot water in the sink seemed to never get hot but the tub water was the proper temperature.  The a/c never got warm enough even though i set it to 80 deg; it was not uncomfortable, just not warm enough.  You have to pay for wifi unfortunately.The location is convenient to malls, restaurants but it still looks somewhat rundown. Staff was nice enough and even though there were no other amenities such as breakfast it was ok for $64. cost. The interior of the room was clean and there was no damage to the room or furniture as you might expect.MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>I stayed in room 261, an end room which worked out rather well. The motel is located on busy NASA Road 1. On the outside not much different than any other Motel 6. On the inside there was simulated wood floors and 2 queen beds which were quite comfortable.  Things that could use improvement:  no shampoo, no conditioner, cable TV channels were aweful, no Kleenex; no closet but a rod with some hangers worked out ok.  The hot water in the sink seemed to never get hot but the tub water was the proper temperature.  The a/c never got warm enough even though i set it to 80 deg; it was not uncomfortable, just not warm enough.  You have to pay for wifi unfortunately.The location is convenient to malls, restaurants but it still looks somewhat rundown. Staff was nice enough and even though there were no other amenities such as breakfast it was ok for $64. cost. The interior of the room was clean and there was no damage to the room or furniture as you might expect.More</t>
   </si>
   <si>
@@ -592,6 +850,42 @@
     <t>I booked three rooms for two nights during the Thanksgiving holiday. I walked into the room and I was slightly impressed with the room. The decor was modern and the room was clean. I had no issues with my room. The other two rooms, did. The first night, my brother was graced with a mouse's presence. That's never a good thing. They didn't want to spend another night so they checked out. After haggling between the manager and Travelocity, I got refunded both nights. On the second night, in the other room, same thing happened. This time my parents were graced with the mouse's presence. Again we complained, but didn't get any compensation for this room. So, I had no issues but they certainly did...and a scary one too. Btw, the rooms with the mouse were 236 and 238. So if you still wanna stay there...refuse those rooms.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r301278586-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>301278586</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before a cruise. The room was next to the pool on the ground level. It was very clean. I loved that the floors weren't carpeted. It made me feel much more comfortable walking around. It is also very spacious. I do wish there had been a coffee maker in the room, but when I dropped the key card off I noticed there was coffee in the office area. Good location close to lots of restaurants, we had no problem getting around or finding it. It was a good choice for the cruise as the drive in the morning wasn't very far or hard at all. Definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before a cruise. The room was next to the pool on the ground level. It was very clean. I loved that the floors weren't carpeted. It made me feel much more comfortable walking around. It is also very spacious. I do wish there had been a coffee maker in the room, but when I dropped the key card off I noticed there was coffee in the office area. Good location close to lots of restaurants, we had no problem getting around or finding it. It was a good choice for the cruise as the drive in the morning wasn't very far or hard at all. Definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r298286733-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>298286733</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Clean room...you get what you paid for.</t>
+  </si>
+  <si>
+    <t>I love Motel 6. Been staying at their motels for years, especially when I got a dog. The rooms are almost always very basic and clean, which is what you pay for at a Motel 6.  Ours is no exception and it is one of the 'modern rooms'. I forgot that there is no tissue/Kleenex and one set of towels. One of our key cards does not work, so had to wake up my kids to let me in. We paid for high speed internet and forgot it works on only one device. Beds and pillows are unexpectedly comfortable; neighborhood is expectedly sketchy.  Pool is light green, so no swimming for my kiddos. Our room window has a crack, there is a little trash around the property, and most all of the AC condensers are dripping onto the walkways - all easily fixable items (if you watch 'Hotel Impossible'). The night manager was VERY professional.  I slept fairly well - which is saying a lot for me. Overall, a decent value, since I think most of the motels with free breakfast are a waste of money.   But just clean up the pool!MoreShow less</t>
+  </si>
+  <si>
+    <t>I love Motel 6. Been staying at their motels for years, especially when I got a dog. The rooms are almost always very basic and clean, which is what you pay for at a Motel 6.  Ours is no exception and it is one of the 'modern rooms'. I forgot that there is no tissue/Kleenex and one set of towels. One of our key cards does not work, so had to wake up my kids to let me in. We paid for high speed internet and forgot it works on only one device. Beds and pillows are unexpectedly comfortable; neighborhood is expectedly sketchy.  Pool is light green, so no swimming for my kiddos. Our room window has a crack, there is a little trash around the property, and most all of the AC condensers are dripping onto the walkways - all easily fixable items (if you watch 'Hotel Impossible'). The night manager was VERY professional.  I slept fairly well - which is saying a lot for me. Overall, a decent value, since I think most of the motels with free breakfast are a waste of money.   But just clean up the pool!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r293349128-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -647,6 +941,49 @@
   </si>
   <si>
     <t>Overall the price made it an OK stay. Loved the fact that there was no carpet in the place; beds were comfortable; and overall clean.My score would improve if there was more attention to detail. Behind the bathroom door looked like it never been cleaned. The door to the fridge was falling off and leaking; called front desk and reported it but no follow up. The trash at the back of the property was over following from the dumpster.Also there was a little unsafe feeling to the place. We saw police activity at the property and there seemed to be people living there long term.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r268377944-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>268377944</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay near Space Center</t>
+  </si>
+  <si>
+    <t>We were looking for a nice place to sleep while touring the area. This fit the bill. Room was very large, very clean. Many great restaurants minutes away. 5 min to Johnson Space center, 2 min to I-45. We were given a handicapped room even though we didn't need it. Don't get one unless you need it. No counter space to put things on. Other than that a perfect place to sleep and relax at night. Staff was always friendly.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r267974156-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>267974156</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Studio 6 clear lake..
+former Howard Johnson</t>
+  </si>
+  <si>
+    <t>My husband and I choose Studio 6 because we had stayed in one in west palm beach fl and loved it.As we checked in the covered parking area was blocked by employees cars.ok no big deal. We get our room key and locate our room. As we opened the door we both just stopped.  This is nothing like the nice one in west palm beach fl. The queen bed is to big for the small room leaving one side completely up against the wall and right in front of the a.c. unit.the kitchen cabinet doors don't close all the way and are empty. No pots pans or cooking iteams as listed on the website. The outside of the refrigerator is rusted in spots and the carpet is nasty. This is not the standard we have come to expect from Studio 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston NASA, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I choose Studio 6 because we had stayed in one in west palm beach fl and loved it.As we checked in the covered parking area was blocked by employees cars.ok no big deal. We get our room key and locate our room. As we opened the door we both just stopped.  This is nothing like the nice one in west palm beach fl. The queen bed is to big for the small room leaving one side completely up against the wall and right in front of the a.c. unit.the kitchen cabinet doors don't close all the way and are empty. No pots pans or cooking iteams as listed on the website. The outside of the refrigerator is rusted in spots and the carpet is nasty. This is not the standard we have come to expect from Studio 6.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r261669948-Motel_6_Houston_NASA-Webster_Texas.html</t>
@@ -717,6 +1054,42 @@
     <t>Nowadays Wi Fi is elemental. At this hotel you will not find this service, but if you want it, you have to pay 4 or 5 dollars more. Unfortunatly, the wi fi service you pay is terrible. If you do not want wi fi, the facilities are good and the fare is cheap.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r239539641-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>239539641</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>One night stay during College Visit</t>
+  </si>
+  <si>
+    <t>The hotel was nice, my husband and I got a room with one king bed and it was SO comfortable.  The staff at the front desk were very pleasant at check-in and check-out.  The AC was cold, the shower was hot.  It was a little dirtier than what I was used to but with hotels you pay for what you get!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r226988668-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>226988668</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Good cold A/C</t>
+  </si>
+  <si>
+    <t>Stopped for one night on vacation. Good cold A/C, clean, hard floor no carpet. Lots of HOT water, right next door to waffle house. Fairly quiet place, has a pool that looked good but we were too tired to use it.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r219109212-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -768,6 +1141,48 @@
     <t>If you just need a place to rest for a few hours would I recommend staying here. This was far below the normally pleasant experience I have at the Motel 6 chain of hotels. "Icky" is the most appropriate word I can use to describe this Motel 6. Walking into the room, I felt like I was stepping into a room at some sort of medical institution. The room was lacking in several basic amenities, including a coffee maker and free wifi. The floor was sticky and the bedding left much to be desired. But for the fact that we had driven six hours and were so tired we could hardly keep our eyes open, we would have tried to find another hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r214735038-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>214735038</t>
+  </si>
+  <si>
+    <t>07/10/2014</t>
+  </si>
+  <si>
+    <t>A nice clean room but nothing more</t>
+  </si>
+  <si>
+    <t>The room itself was nice, with a "recently remodeled" feel to it. BUT this is the first time in years I've gone to any motel that 1) doesn't offer continental breakfast of any kind and 2) charges you for wi fi access to the tune of ~$3 per day per device! It seems I've stayed at other Motel 6's in the past year or two where those things were included in the room price. Traveling with two kids, I found that the costs of buying internet (which I refuse to do) and buying breakfast elsewhere (which I had to do) turned that "cheap nice room" into a poor value for me.So, if breakfast and free wi fi are unimportant to you and you're looking for just a clean place to flop for a night, this place will give you that. But those other things are important to me, and in an age where they're standard offerings in most motels even at the "budget" level, I'll probably be staying elsewhere in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>The room itself was nice, with a "recently remodeled" feel to it. BUT this is the first time in years I've gone to any motel that 1) doesn't offer continental breakfast of any kind and 2) charges you for wi fi access to the tune of ~$3 per day per device! It seems I've stayed at other Motel 6's in the past year or two where those things were included in the room price. Traveling with two kids, I found that the costs of buying internet (which I refuse to do) and buying breakfast elsewhere (which I had to do) turned that "cheap nice room" into a poor value for me.So, if breakfast and free wi fi are unimportant to you and you're looking for just a clean place to flop for a night, this place will give you that. But those other things are important to me, and in an age where they're standard offerings in most motels even at the "budget" level, I'll probably be staying elsewhere in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r203317157-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>203317157</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>Clear Lake, Spring Flounder</t>
+  </si>
+  <si>
+    <t>I had a wonderful Easter weekend stay at this Motel 6.  I was here for 4 days this trip.  I was told i brought them the first nice weekend of the year.  I arrived early and the nice lady at the front desk told me my room would be ready by 2pm.  I said that was perfect, because i needed to get a bite to eat next door at the Waffle House and i was going to go fishing at Clear Lake up the street.  I caught flounder on topwater, broken back minnow.  It was incredible.  Other fishermen were catching them on jigs. My room was ready the minute they said it would be and it was beautiful everyday i got back from my fishing trip!  I will keep coming back and will keep writing good things about this location!  This location is just far enough from Houston and just close enough to Galveston!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I had a wonderful Easter weekend stay at this Motel 6.  I was here for 4 days this trip.  I was told i brought them the first nice weekend of the year.  I arrived early and the nice lady at the front desk told me my room would be ready by 2pm.  I said that was perfect, because i needed to get a bite to eat next door at the Waffle House and i was going to go fishing at Clear Lake up the street.  I caught flounder on topwater, broken back minnow.  It was incredible.  Other fishermen were catching them on jigs. My room was ready the minute they said it would be and it was beautiful everyday i got back from my fishing trip!  I will keep coming back and will keep writing good things about this location!  This location is just far enough from Houston and just close enough to Galveston!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r164309771-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -829,6 +1244,45 @@
   </si>
   <si>
     <t>This Motel 6 has been remodeled and is conveniently located.  Check in was very fast and we got a downstairs room as we requested.  The staff was friendly and courteous. The room was larger then normal and very clean - both the room and bathroom have been updated.  Beds were comfortable and it was quiet at night.  Paid extra ($3. a day) for wifi, but had no complaints - worked great. There is a very nice large pool and lots of parking.  We used the laundry facilities (washer &amp; dryer) while we were there  and they worked fine.  We travel with our small dog and usually stay at Motel 6 - this is one of the nicer ones we have stayed at.  We will stay here again when we are in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r152578952-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>152578952</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Very Clean!</t>
+  </si>
+  <si>
+    <t>Went to this place after checking out of the roach-infested Sun Suites up the highway....it was like night and day!  Place was very clean and updated.  I had not stayed in a Motel 6 in a while and I, along with my family, were impressed.  Customer service was excellent, and we were glad we stayed here.  There's plenty of parking and quite a few dining options.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r145465779-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>145465779</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>Flounder Run</t>
+  </si>
+  <si>
+    <t>The Motel 6 Off of Nasa Road 1, in Webster Texas is the perfect location for fishermen like myself.  Clear lake is just up the street and Galveston Bay is just a little further down Nasa Road 1.  But for the serious fisherman Galveston Island fishing can not be beat!  This trip was the best fishing trip of all time!  Staying at the Motel 6, off of Nasa Road 1, makes it a 15 minute trip to Galveston Island and all the outdoor and water recreation that is available there.  The price of the Motel 6, is only $39,99 per night but if you stay for 7 days you get a rate of only $35.00 per night.  I caught 9 flounder the 7 days i was there along with a bunch of other fish.  I fished with Get Hooked Charter and Captain Mike Short and his people always put you on the fish for a fantastic price!  I always take the half a day trip and have never been disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>The Motel 6 Off of Nasa Road 1, in Webster Texas is the perfect location for fishermen like myself.  Clear lake is just up the street and Galveston Bay is just a little further down Nasa Road 1.  But for the serious fisherman Galveston Island fishing can not be beat!  This trip was the best fishing trip of all time!  Staying at the Motel 6, off of Nasa Road 1, makes it a 15 minute trip to Galveston Island and all the outdoor and water recreation that is available there.  The price of the Motel 6, is only $39,99 per night but if you stay for 7 days you get a rate of only $35.00 per night.  I caught 9 flounder the 7 days i was there along with a bunch of other fish.  I fished with Get Hooked Charter and Captain Mike Short and his people always put you on the fish for a fantastic price!  I always take the half a day trip and have never been disappointed.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r134391728-Motel_6_Houston_NASA-Webster_Texas.html</t>
@@ -892,6 +1346,39 @@
     <t>1.  Polite staff 2. Close to eateries and tourist attractions3. Cheap RatesAND NOW FOR THE TRAVELER BEWARE.1.  Drinking and Fighting  in parking lot (after asking around town -  seems this is not unusual      at this motel)2.  People kicked and banged on doors to rooms that were not theirs during late night and early      morning hours3.  Carpets was dirty, took shower walked to bed and had to go wash feet again and put on      slippers4.  Dog poop everywhere there is grass and even by the grassy area at pool fence     shame on travelers who don't pick up BUT double shame on Hotel for not keeping grounds      clean and monitoring5.  WIFI is a daily fee - not free6.  If you ask staff if motel is Safe -  they assure you it is -  But I firmly believe it is only Safe      because the Police do monitor and respond quickly7.  Door knob fell off in my hand when I turned it  I would not ever stay here again and I would not recommendMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r126361714-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>126361714</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Updated and clean.</t>
+  </si>
+  <si>
+    <t>I was very surprised cause i havent stayed in a motel 6 since rhe 80s and i was happy to report it was a great experience at a good price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r125527157-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>125527157</t>
+  </si>
+  <si>
+    <t>03/02/2012</t>
+  </si>
+  <si>
+    <t>Wonderful bed</t>
+  </si>
+  <si>
+    <t>Best bed I've every slept on while traveling.  Clean, comfortable, and convenient location and the staff was very helpful and friendly.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r116285128-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1430,45 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r70782764-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>70782764</t>
+  </si>
+  <si>
+    <t>07/13/2010</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>If you need a place to stay that doesn't cost much you can survive a couple of nights at this Motel 6.  Remember to take slippers because the floor isn't clean.  You might also want ear plugs for noisy neighbors or the garbage man that comes at 5 a.m.  The location right off the interstate is handy and even though it's not in the fancy part of town I did feel safe.   The front desk people were polite and tried to put me in a quiet room, but the neighbors in the next room did NOT cooperate.  The price is right, but if you have the money and want uninterrupted sleep you may want to consider staying elsewhere.  Can't recommend this place unless you REALLY need to travel inexpensively.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>If you need a place to stay that doesn't cost much you can survive a couple of nights at this Motel 6.  Remember to take slippers because the floor isn't clean.  You might also want ear plugs for noisy neighbors or the garbage man that comes at 5 a.m.  The location right off the interstate is handy and even though it's not in the fancy part of town I did feel safe.   The front desk people were polite and tried to put me in a quiet room, but the neighbors in the next room did NOT cooperate.  The price is right, but if you have the money and want uninterrupted sleep you may want to consider staying elsewhere.  Can't recommend this place unless you REALLY need to travel inexpensively.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r62914302-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>62914302</t>
+  </si>
+  <si>
+    <t>04/30/2010</t>
+  </si>
+  <si>
+    <t>Quiet, clean, no frills and save. Good value.</t>
+  </si>
+  <si>
+    <t>On West NASA Road 1, five minutes drive from Johnson Space Center, this is a good value motel. Rooms are clean, spacey and well-maintained. Quiet and save neighborhood. Recommended.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r59249647-Motel_6_Houston_NASA-Webster_Texas.html</t>
   </si>
   <si>
@@ -995,6 +1521,42 @@
   </si>
   <si>
     <t>Although it took us ages to get checked in, as we arrived in rush hour and the check-in woman was a control freak (in a nice way), this hotel is an excellent low cost motel. The room was clean and cool and the location was amazing (5 minutes drive to NASA). We stayed here for two nights one before a visit to NASA and one after and both rooms were fine. I would definitely recommend this if you are visiting Houston on a budget.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r17033828-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>17033828</t>
+  </si>
+  <si>
+    <t>06/18/2008</t>
+  </si>
+  <si>
+    <t>room was cool and clean/great place and rate</t>
+  </si>
+  <si>
+    <t>after driviing several hours, our room was clean and cool. i enjoyed staying there.the rate is really good for the upscale area.-c. gartman</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d244395-r16900116-Motel_6_Houston_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>16900116</t>
+  </si>
+  <si>
+    <t>06/13/2008</t>
+  </si>
+  <si>
+    <t>The Best Little Pigsty in Texas...</t>
+  </si>
+  <si>
+    <t>We arrived a little after 4:00pm  on a Sunday   Our first room had NOT been cleaned yet.. we were sent to a different room which did not have any towels or soap...( they arrived about an hour later).we were delivered 2 towels, 2 face soaps and 2 facecloths...there were not any tissues,  shampoos etc... the carpet was so filthy we had to were our house shoes...you could NOT go barefoot... the light in the shower did not work and the microwave door was melted....we payed $2.99 for internet access  that was sooooooo sloooooooow and that was when you could get a signal...I guess what we are saying is our dog has a cleaner room than this was......please avoid this pigsty at all times.....We contacted the corporate office to inform them of all of this and they promised to send an agent out to check the rooms over and promised us a voucher for a free nights stay........We'll leave the lights on for you......but please conserve energy......MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived a little after 4:00pm  on a Sunday   Our first room had NOT been cleaned yet.. we were sent to a different room which did not have any towels or soap...( they arrived about an hour later).we were delivered 2 towels, 2 face soaps and 2 facecloths...there were not any tissues,  shampoos etc... the carpet was so filthy we had to were our house shoes...you could NOT go barefoot... the light in the shower did not work and the microwave door was melted....we payed $2.99 for internet access  that was sooooooo sloooooooow and that was when you could get a signal...I guess what we are saying is our dog has a cleaner room than this was......please avoid this pigsty at all times.....We contacted the corporate office to inform them of all of this and they promised to send an agent out to check the rooms over and promised us a voucher for a free nights stay........We'll leave the lights on for you......but please conserve energy......More</t>
   </si>
 </sst>
 </file>
@@ -1586,13 +2148,13 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1603,14 +2165,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" t="s">
-        <v>60</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1626,34 +2184,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1667,7 +2225,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1683,34 +2241,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
         <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1724,7 +2282,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1740,34 +2298,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1778,10 +2336,14 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1797,7 +2359,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1806,25 +2368,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1835,14 +2397,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
         <v>85</v>
-      </c>
-      <c r="X7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1858,54 +2416,48 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1921,34 +2473,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="L9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>99</v>
-      </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1962,7 +2514,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1978,7 +2530,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1987,43 +2539,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -2039,7 +2587,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2048,25 +2596,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2080,7 +2628,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -2096,7 +2644,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2105,43 +2653,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" t="s">
+        <v>112</v>
+      </c>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -2157,7 +2705,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2166,49 +2714,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>127</v>
-      </c>
-      <c r="X13" t="s">
-        <v>128</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2224,7 +2762,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2233,25 +2771,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2265,7 +2803,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -2281,7 +2819,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2290,39 +2828,45 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -2338,7 +2882,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2347,43 +2891,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -2399,7 +2939,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2408,22 +2948,22 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
@@ -2431,16 +2971,20 @@
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
@@ -2456,7 +3000,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2465,45 +3009,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
@@ -2519,7 +3057,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2528,45 +3066,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
@@ -2582,7 +3114,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2591,43 +3123,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -2643,7 +3171,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2652,39 +3180,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -2700,7 +3232,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2709,43 +3241,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="X22" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
@@ -2761,7 +3299,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2770,49 +3308,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="X23" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
@@ -2828,7 +3364,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2837,45 +3373,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s">
-        <v>67</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
@@ -2891,7 +3421,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2900,22 +3430,26 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>135</v>
+      </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
@@ -2928,7 +3462,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
@@ -2944,7 +3478,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2953,45 +3487,39 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="J26" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
@@ -3007,7 +3535,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3016,35 +3544,35 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="J27" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="O27" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3052,7 +3580,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
@@ -3068,7 +3596,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3077,49 +3605,45 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>228</v>
-      </c>
-      <c r="X28" t="s">
-        <v>229</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
@@ -3135,7 +3659,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3144,45 +3668,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="O29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
@@ -3198,7 +3716,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3207,43 +3725,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>3</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31">
@@ -3259,7 +3773,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3268,37 +3782,37 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3306,7 +3820,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32">
@@ -3322,7 +3836,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3331,41 +3845,37 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="K32" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3373,7 +3883,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33">
@@ -3389,7 +3899,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3398,41 +3908,37 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="J33" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K33" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="O33" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3440,7 +3946,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
@@ -3456,7 +3962,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3465,49 +3971,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="K34" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
@@ -3523,7 +4019,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3532,37 +4028,35 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="J35" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="Q35" t="n">
-        <v>2</v>
-      </c>
+      <c r="N35" t="s">
+        <v>248</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
         <v>4</v>
       </c>
-      <c r="S35" t="n">
-        <v>2</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3570,7 +4064,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
@@ -3586,7 +4080,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3595,49 +4089,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="J36" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>1</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
@@ -3653,7 +4137,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3662,49 +4146,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s">
-        <v>74</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>2</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>269</v>
+      </c>
+      <c r="X37" t="s">
+        <v>270</v>
+      </c>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
@@ -3720,7 +4198,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3729,34 +4207,34 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+      <c r="N38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -3767,7 +4245,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
@@ -3783,7 +4261,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3792,39 +4270,45 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="J39" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="K39" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="O39" t="s">
-        <v>74</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
@@ -3840,7 +4324,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3849,49 +4333,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="J40" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>290</v>
+      </c>
+      <c r="X40" t="s">
+        <v>291</v>
+      </c>
       <c r="Y40" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41">
@@ -3907,7 +4391,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -3916,41 +4400,37 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="J41" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="K41" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3958,7 +4438,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42">
@@ -3974,7 +4454,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -3983,49 +4463,35 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="J42" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="K42" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>317</v>
-      </c>
-      <c r="O42" t="s">
-        <v>100</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43">
@@ -4041,7 +4507,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4050,37 +4516,37 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="J43" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="K43" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>308</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R43" t="n">
         <v>5</v>
       </c>
-      <c r="S43" t="n">
-        <v>3</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4088,7 +4554,2014 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>309</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>310</v>
+      </c>
+      <c r="J44" t="s">
+        <v>311</v>
+      </c>
+      <c r="K44" t="s">
+        <v>312</v>
+      </c>
+      <c r="L44" t="s">
+        <v>313</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>308</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>314</v>
+      </c>
+      <c r="X44" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" t="s">
+        <v>319</v>
+      </c>
+      <c r="K45" t="s">
+        <v>320</v>
+      </c>
+      <c r="L45" t="s">
+        <v>321</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
         <v>322</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>324</v>
+      </c>
+      <c r="J46" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" t="s">
+        <v>326</v>
+      </c>
+      <c r="L46" t="s">
+        <v>327</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>328</v>
+      </c>
+      <c r="O46" t="s">
+        <v>135</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>336</v>
+      </c>
+      <c r="X47" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>340</v>
+      </c>
+      <c r="J48" t="s">
+        <v>341</v>
+      </c>
+      <c r="K48" t="s">
+        <v>342</v>
+      </c>
+      <c r="L48" t="s">
+        <v>343</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>344</v>
+      </c>
+      <c r="O48" t="s">
+        <v>135</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>345</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" t="s">
+        <v>348</v>
+      </c>
+      <c r="L49" t="s">
+        <v>349</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>350</v>
+      </c>
+      <c r="O49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>352</v>
+      </c>
+      <c r="J50" t="s">
+        <v>353</v>
+      </c>
+      <c r="K50" t="s">
+        <v>354</v>
+      </c>
+      <c r="L50" t="s">
+        <v>355</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>356</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>358</v>
+      </c>
+      <c r="J51" t="s">
+        <v>359</v>
+      </c>
+      <c r="K51" t="s">
+        <v>360</v>
+      </c>
+      <c r="L51" t="s">
+        <v>361</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>356</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>362</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>363</v>
+      </c>
+      <c r="J52" t="s">
+        <v>364</v>
+      </c>
+      <c r="K52" t="s">
+        <v>365</v>
+      </c>
+      <c r="L52" t="s">
+        <v>366</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>356</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>368</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>369</v>
+      </c>
+      <c r="J53" t="s">
+        <v>370</v>
+      </c>
+      <c r="K53" t="s">
+        <v>371</v>
+      </c>
+      <c r="L53" t="s">
+        <v>372</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>373</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>375</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>376</v>
+      </c>
+      <c r="J54" t="s">
+        <v>377</v>
+      </c>
+      <c r="K54" t="s">
+        <v>378</v>
+      </c>
+      <c r="L54" t="s">
+        <v>379</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>380</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>382</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>383</v>
+      </c>
+      <c r="J55" t="s">
+        <v>384</v>
+      </c>
+      <c r="K55" t="s">
+        <v>385</v>
+      </c>
+      <c r="L55" t="s">
+        <v>386</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>387</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>389</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>390</v>
+      </c>
+      <c r="J56" t="s">
+        <v>391</v>
+      </c>
+      <c r="K56" t="s">
+        <v>392</v>
+      </c>
+      <c r="L56" t="s">
+        <v>393</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>394</v>
+      </c>
+      <c r="O56" t="s">
+        <v>135</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>396</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>397</v>
+      </c>
+      <c r="J57" t="s">
+        <v>398</v>
+      </c>
+      <c r="K57" t="s">
+        <v>399</v>
+      </c>
+      <c r="L57" t="s">
+        <v>400</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>401</v>
+      </c>
+      <c r="O57" t="s">
+        <v>86</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>403</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K58" t="s">
+        <v>406</v>
+      </c>
+      <c r="L58" t="s">
+        <v>407</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>408</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>409</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>410</v>
+      </c>
+      <c r="J59" t="s">
+        <v>411</v>
+      </c>
+      <c r="K59" t="s">
+        <v>412</v>
+      </c>
+      <c r="L59" t="s">
+        <v>413</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>414</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>416</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>417</v>
+      </c>
+      <c r="J60" t="s">
+        <v>418</v>
+      </c>
+      <c r="K60" t="s">
+        <v>419</v>
+      </c>
+      <c r="L60" t="s">
+        <v>420</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>421</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>422</v>
+      </c>
+      <c r="J61" t="s">
+        <v>423</v>
+      </c>
+      <c r="K61" t="s">
+        <v>424</v>
+      </c>
+      <c r="L61" t="s">
+        <v>425</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>426</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>428</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>429</v>
+      </c>
+      <c r="J62" t="s">
+        <v>430</v>
+      </c>
+      <c r="K62" t="s">
+        <v>431</v>
+      </c>
+      <c r="L62" t="s">
+        <v>432</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>433</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>435</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>436</v>
+      </c>
+      <c r="J63" t="s">
+        <v>437</v>
+      </c>
+      <c r="K63" t="s">
+        <v>438</v>
+      </c>
+      <c r="L63" t="s">
+        <v>439</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>440</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>441</v>
+      </c>
+      <c r="J64" t="s">
+        <v>442</v>
+      </c>
+      <c r="K64" t="s">
+        <v>443</v>
+      </c>
+      <c r="L64" t="s">
+        <v>444</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>445</v>
+      </c>
+      <c r="O64" t="s">
+        <v>135</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>446</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>447</v>
+      </c>
+      <c r="J65" t="s">
+        <v>448</v>
+      </c>
+      <c r="K65" t="s">
+        <v>449</v>
+      </c>
+      <c r="L65" t="s">
+        <v>450</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>451</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>452</v>
+      </c>
+      <c r="J66" t="s">
+        <v>453</v>
+      </c>
+      <c r="K66" t="s">
+        <v>454</v>
+      </c>
+      <c r="L66" t="s">
+        <v>455</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>456</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>457</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>458</v>
+      </c>
+      <c r="J67" t="s">
+        <v>459</v>
+      </c>
+      <c r="K67" t="s">
+        <v>460</v>
+      </c>
+      <c r="L67" t="s">
+        <v>461</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>462</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>463</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>464</v>
+      </c>
+      <c r="J68" t="s">
+        <v>465</v>
+      </c>
+      <c r="K68" t="s">
+        <v>466</v>
+      </c>
+      <c r="L68" t="s">
+        <v>467</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>468</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>470</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>471</v>
+      </c>
+      <c r="J69" t="s">
+        <v>472</v>
+      </c>
+      <c r="K69" t="s">
+        <v>473</v>
+      </c>
+      <c r="L69" t="s">
+        <v>474</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>475</v>
+      </c>
+      <c r="O69" t="s">
+        <v>135</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>476</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>477</v>
+      </c>
+      <c r="J70" t="s">
+        <v>478</v>
+      </c>
+      <c r="K70" t="s">
+        <v>479</v>
+      </c>
+      <c r="L70" t="s">
+        <v>480</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>481</v>
+      </c>
+      <c r="O70" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>483</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>484</v>
+      </c>
+      <c r="J71" t="s">
+        <v>485</v>
+      </c>
+      <c r="K71" t="s">
+        <v>486</v>
+      </c>
+      <c r="L71" t="s">
+        <v>487</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>488</v>
+      </c>
+      <c r="O71" t="s">
+        <v>135</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>489</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>490</v>
+      </c>
+      <c r="J72" t="s">
+        <v>491</v>
+      </c>
+      <c r="K72" t="s">
+        <v>492</v>
+      </c>
+      <c r="L72" t="s">
+        <v>493</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>494</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>495</v>
+      </c>
+      <c r="J73" t="s">
+        <v>496</v>
+      </c>
+      <c r="K73" t="s">
+        <v>497</v>
+      </c>
+      <c r="L73" t="s">
+        <v>498</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>499</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6141</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>500</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>501</v>
+      </c>
+      <c r="J74" t="s">
+        <v>502</v>
+      </c>
+      <c r="K74" t="s">
+        <v>503</v>
+      </c>
+      <c r="L74" t="s">
+        <v>504</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>499</v>
+      </c>
+      <c r="O74" t="s">
+        <v>135</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
